--- a/Code/Results/Cases/Case_5_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,844 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.94100990536625</v>
+        <v>22.18746187992205</v>
       </c>
       <c r="C2">
-        <v>15.83814910550912</v>
+        <v>15.5406635989599</v>
       </c>
       <c r="D2">
-        <v>4.528233778363721</v>
+        <v>4.137585723814887</v>
       </c>
       <c r="E2">
-        <v>13.15837633582862</v>
+        <v>10.58590433918948</v>
       </c>
       <c r="F2">
-        <v>39.22408671232234</v>
+        <v>36.66643470554066</v>
       </c>
       <c r="I2">
-        <v>25.82668838265054</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.90891399510844</v>
+        <v>19.50275356418744</v>
       </c>
       <c r="L2">
-        <v>15.95592594526035</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>18.56723006613511</v>
+      </c>
+      <c r="N2">
+        <v>13.63999717931615</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.44238113042966</v>
+        <v>20.57946947884561</v>
       </c>
       <c r="C3">
-        <v>14.69480842682885</v>
+        <v>14.42157381842011</v>
       </c>
       <c r="D3">
-        <v>4.544637884793387</v>
+        <v>4.202820266388355</v>
       </c>
       <c r="E3">
-        <v>12.18402251670042</v>
+        <v>9.960435054160083</v>
       </c>
       <c r="F3">
-        <v>37.11502154547021</v>
+        <v>34.78746696939602</v>
       </c>
       <c r="I3">
-        <v>24.80181149349385</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.58155089868553</v>
+        <v>18.10535764043161</v>
       </c>
       <c r="L3">
-        <v>14.79632865723255</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>17.2435870283016</v>
+      </c>
+      <c r="N3">
+        <v>13.76359557363847</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.47657412525184</v>
+        <v>19.54420121312083</v>
       </c>
       <c r="C4">
-        <v>13.95936306945559</v>
+        <v>13.70133651038373</v>
       </c>
       <c r="D4">
-        <v>4.557536967095563</v>
+        <v>4.244936624428473</v>
       </c>
       <c r="E4">
-        <v>11.55904346200555</v>
+        <v>9.569705123855876</v>
       </c>
       <c r="F4">
-        <v>35.80547675055019</v>
+        <v>33.62565465146447</v>
       </c>
       <c r="I4">
-        <v>24.17979241629187</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.72681447118859</v>
+        <v>17.20531542491737</v>
       </c>
       <c r="L4">
-        <v>14.05180460455979</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16.39227274197939</v>
+      </c>
+      <c r="N4">
+        <v>13.84552020410393</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.07129244744267</v>
+        <v>19.11004569002591</v>
       </c>
       <c r="C5">
-        <v>13.65106177135227</v>
+        <v>13.399329087845</v>
       </c>
       <c r="D5">
-        <v>4.563442104171795</v>
+        <v>4.262583742993671</v>
       </c>
       <c r="E5">
-        <v>11.29745384014585</v>
+        <v>9.40888184860834</v>
       </c>
       <c r="F5">
-        <v>35.2685020519372</v>
+        <v>33.15052162348391</v>
       </c>
       <c r="I5">
-        <v>23.92822867395947</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.36830985227102</v>
+        <v>16.82776038037743</v>
       </c>
       <c r="L5">
-        <v>13.74001243582564</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16.03544279381338</v>
+      </c>
+      <c r="N5">
+        <v>13.88033849258514</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.00328220876764</v>
+        <v>19.03720716430146</v>
       </c>
       <c r="C6">
-        <v>13.59934364319539</v>
+        <v>13.34866232767537</v>
       </c>
       <c r="D6">
-        <v>4.56446012558555</v>
+        <v>4.265542400801062</v>
       </c>
       <c r="E6">
-        <v>11.25359484838412</v>
+        <v>9.382084090634613</v>
       </c>
       <c r="F6">
-        <v>35.17914951090997</v>
+        <v>33.07153695625221</v>
       </c>
       <c r="I6">
-        <v>23.88657558666281</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.30815924121108</v>
+        <v>16.76441065513879</v>
       </c>
       <c r="L6">
-        <v>13.68772677232902</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.97558699190579</v>
+      </c>
+      <c r="N6">
+        <v>13.88620433668385</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.47115605079387</v>
+        <v>19.53839601372549</v>
       </c>
       <c r="C7">
-        <v>13.95524028461129</v>
+        <v>13.69729819584147</v>
       </c>
       <c r="D7">
-        <v>4.557614057068147</v>
+        <v>4.245172699310764</v>
       </c>
       <c r="E7">
-        <v>11.55554376854876</v>
+        <v>9.567542530177496</v>
       </c>
       <c r="F7">
-        <v>35.79824783724943</v>
+        <v>33.61925311101626</v>
       </c>
       <c r="I7">
-        <v>24.17639184610049</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.72202107702855</v>
+        <v>17.20026750357763</v>
       </c>
       <c r="L7">
-        <v>14.04763391769058</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16.38750080719169</v>
+      </c>
+      <c r="N7">
+        <v>13.84598407629467</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43361182572524</v>
+        <v>21.64284169304208</v>
       </c>
       <c r="C8">
-        <v>15.45074116707587</v>
+        <v>15.16156197096293</v>
       </c>
       <c r="D8">
-        <v>4.533263725124878</v>
+        <v>4.15962808241616</v>
       </c>
       <c r="E8">
-        <v>12.82784813300946</v>
+        <v>10.37166780547106</v>
       </c>
       <c r="F8">
-        <v>38.50006626643616</v>
+        <v>36.02042954246846</v>
       </c>
       <c r="I8">
-        <v>25.47184475346015</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.45935787284518</v>
+        <v>19.02952447340703</v>
       </c>
       <c r="L8">
-        <v>15.56271353080444</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>18.11871695838506</v>
+      </c>
+      <c r="N8">
+        <v>13.68130760780662</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.93121742018371</v>
+        <v>25.40015423039172</v>
       </c>
       <c r="C9">
-        <v>18.12786851870701</v>
+        <v>17.77908904504713</v>
       </c>
       <c r="D9">
-        <v>4.511114407674546</v>
+        <v>4.010150680341281</v>
       </c>
       <c r="E9">
-        <v>15.12013996786038</v>
+        <v>11.98066958583075</v>
       </c>
       <c r="F9">
-        <v>43.67527483558191</v>
+        <v>40.6554256658302</v>
       </c>
       <c r="I9">
-        <v>28.06845302207102</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.56117188659007</v>
+        <v>22.29352641992527</v>
       </c>
       <c r="L9">
-        <v>18.28636990284949</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>21.21779864886834</v>
+      </c>
+      <c r="N9">
+        <v>13.41062582778799</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.30478828782414</v>
+        <v>27.95274916048407</v>
       </c>
       <c r="C10">
-        <v>19.95413676313807</v>
+        <v>19.56112727992739</v>
       </c>
       <c r="D10">
-        <v>4.515516257654523</v>
+        <v>3.914855272994927</v>
       </c>
       <c r="E10">
-        <v>16.69543700112585</v>
+        <v>13.24007479953842</v>
       </c>
       <c r="F10">
-        <v>47.40391384432618</v>
+        <v>44.01321914639981</v>
       </c>
       <c r="I10">
-        <v>30.01335895872367</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.67002356323448</v>
+        <v>24.51060773753303</v>
       </c>
       <c r="L10">
-        <v>20.1533990920079</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>23.33056844542287</v>
+      </c>
+      <c r="N10">
+        <v>13.25071332774535</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.3465772052166</v>
+        <v>29.07336063050909</v>
       </c>
       <c r="C11">
-        <v>20.75836679211546</v>
+        <v>20.34472378850462</v>
       </c>
       <c r="D11">
-        <v>4.523357286073523</v>
+        <v>3.875674327682838</v>
       </c>
       <c r="E11">
-        <v>17.39231428093895</v>
+        <v>13.79742096448717</v>
       </c>
       <c r="F11">
-        <v>49.08789377746276</v>
+        <v>45.5328302797141</v>
       </c>
       <c r="I11">
-        <v>30.90844326804788</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.59663002385727</v>
+        <v>25.48401891530886</v>
       </c>
       <c r="L11">
-        <v>20.9780525018446</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>24.2602788104715</v>
+      </c>
+      <c r="N11">
+        <v>13.18835927506658</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.73606137224964</v>
+        <v>29.49230942650943</v>
       </c>
       <c r="C12">
-        <v>21.05947602254639</v>
+        <v>20.6379014106134</v>
       </c>
       <c r="D12">
-        <v>4.527299974416628</v>
+        <v>3.861547588208965</v>
       </c>
       <c r="E12">
-        <v>17.65374745674003</v>
+        <v>14.00652378356565</v>
       </c>
       <c r="F12">
-        <v>49.72436414964994</v>
+        <v>46.10753747626221</v>
       </c>
       <c r="I12">
-        <v>31.24918588657495</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.94321301287061</v>
+        <v>25.84796445867195</v>
       </c>
       <c r="L12">
-        <v>21.28721273251743</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>24.60822730118595</v>
+      </c>
+      <c r="N12">
+        <v>13.16643691756162</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.65239448026632</v>
+        <v>29.4023140223686</v>
       </c>
       <c r="C13">
-        <v>20.99477282002091</v>
+        <v>20.57491249121967</v>
       </c>
       <c r="D13">
-        <v>4.526405197770873</v>
+        <v>3.86455641973547</v>
       </c>
       <c r="E13">
-        <v>17.59754583488449</v>
+        <v>13.96157153904734</v>
       </c>
       <c r="F13">
-        <v>49.58733220761418</v>
+        <v>45.98378862636643</v>
       </c>
       <c r="I13">
-        <v>31.17571494711827</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.86875445886158</v>
+        <v>25.7697829037853</v>
       </c>
       <c r="L13">
-        <v>21.2207606605641</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>24.53346623773412</v>
+      </c>
+      <c r="N13">
+        <v>13.17107967901026</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.37871812945424</v>
+        <v>29.10793337317715</v>
       </c>
       <c r="C14">
-        <v>20.78320567635733</v>
+        <v>20.36891279219671</v>
       </c>
       <c r="D14">
-        <v>4.523661303656167</v>
+        <v>3.874497156763774</v>
       </c>
       <c r="E14">
-        <v>17.41386944640154</v>
+        <v>13.81466130618116</v>
       </c>
       <c r="F14">
-        <v>49.14027714662911</v>
+        <v>45.58012367434635</v>
       </c>
       <c r="I14">
-        <v>30.93643824558767</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.62522732401316</v>
+        <v>25.51405197840725</v>
       </c>
       <c r="L14">
-        <v>21.00354709243204</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24.28898465123932</v>
+      </c>
+      <c r="N14">
+        <v>13.18652061006281</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.21044405233752</v>
+        <v>28.92692706187506</v>
       </c>
       <c r="C15">
-        <v>20.65317967082602</v>
+        <v>20.24228013551677</v>
       </c>
       <c r="D15">
-        <v>4.522111684622845</v>
+        <v>3.880682339081706</v>
       </c>
       <c r="E15">
-        <v>17.30105436212315</v>
+        <v>13.72442956466231</v>
       </c>
       <c r="F15">
-        <v>48.86630404661769</v>
+        <v>45.33278595564812</v>
       </c>
       <c r="I15">
-        <v>30.79011903849105</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.47551256213644</v>
+        <v>25.35681451128901</v>
       </c>
       <c r="L15">
-        <v>20.87010532096017</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>24.13870997137942</v>
+      </c>
+      <c r="N15">
+        <v>13.19620502957679</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.2359772406032</v>
+        <v>27.87873364703409</v>
       </c>
       <c r="C16">
-        <v>19.90107561448598</v>
+        <v>19.50940068163777</v>
       </c>
       <c r="D16">
-        <v>4.515132306520361</v>
+        <v>3.917508661270747</v>
       </c>
       <c r="E16">
-        <v>16.64952837672971</v>
+        <v>13.20336120873103</v>
       </c>
       <c r="F16">
-        <v>47.29365776075806</v>
+        <v>43.91378057166071</v>
       </c>
       <c r="I16">
-        <v>29.95509477135916</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.60884227653329</v>
+        <v>24.44631788210335</v>
       </c>
       <c r="L16">
-        <v>20.09904486773916</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>23.26921097509126</v>
+      </c>
+      <c r="N16">
+        <v>13.25501341650143</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.62874440294406</v>
+        <v>27.22559728181759</v>
       </c>
       <c r="C17">
-        <v>19.43313906177199</v>
+        <v>19.05309775359231</v>
       </c>
       <c r="D17">
-        <v>4.512435193993078</v>
+        <v>3.94123975589125</v>
       </c>
       <c r="E17">
-        <v>16.24503549833958</v>
+        <v>12.87990671992265</v>
       </c>
       <c r="F17">
-        <v>46.32608641284807</v>
+        <v>43.04147989051705</v>
       </c>
       <c r="I17">
-        <v>29.44566532112336</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.06905561230111</v>
+        <v>23.87901631561661</v>
       </c>
       <c r="L17">
-        <v>19.61999147839694</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>22.72802837138398</v>
+      </c>
+      <c r="N17">
+        <v>13.29388139649689</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.27587738089584</v>
+        <v>26.84608205415728</v>
       </c>
       <c r="C18">
-        <v>19.16146951617222</v>
+        <v>18.78807442244931</v>
       </c>
       <c r="D18">
-        <v>4.511424335188702</v>
+        <v>3.955273788188445</v>
       </c>
       <c r="E18">
-        <v>16.0104987179033</v>
+        <v>12.69237989264505</v>
       </c>
       <c r="F18">
-        <v>45.76837313189093</v>
+        <v>42.538981650968</v>
       </c>
       <c r="I18">
-        <v>29.15360316166527</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.7554774743366</v>
+        <v>23.54938470928233</v>
       </c>
       <c r="L18">
-        <v>19.34210162070006</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>22.41377184381584</v>
+      </c>
+      <c r="N18">
+        <v>13.31720185680066</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.15577150254888</v>
+        <v>26.71691153557166</v>
       </c>
       <c r="C19">
-        <v>19.06904249209665</v>
+        <v>18.69789113898025</v>
       </c>
       <c r="D19">
-        <v>4.511171139105925</v>
+        <v>3.960088522076518</v>
       </c>
       <c r="E19">
-        <v>15.93075455743411</v>
+        <v>12.62862356331543</v>
       </c>
       <c r="F19">
-        <v>45.57932315389295</v>
+        <v>42.36870217097612</v>
       </c>
       <c r="I19">
-        <v>29.05487125307711</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.64876034242071</v>
+        <v>23.4371933192559</v>
       </c>
       <c r="L19">
-        <v>19.2475970730005</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22.30684636005362</v>
+      </c>
+      <c r="N19">
+        <v>13.32525797874573</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.69375526124654</v>
+        <v>27.29552012444725</v>
       </c>
       <c r="C20">
-        <v>19.48321042607178</v>
+        <v>19.10193566122345</v>
       </c>
       <c r="D20">
-        <v>4.512665465482531</v>
+        <v>3.938673016282759</v>
       </c>
       <c r="E20">
-        <v>16.28828680122903</v>
+        <v>12.91449069285817</v>
       </c>
       <c r="F20">
-        <v>46.42920612688016</v>
+        <v>43.13441556897709</v>
       </c>
       <c r="I20">
-        <v>29.49979495849693</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.12683567387544</v>
+        <v>23.93974901059808</v>
       </c>
       <c r="L20">
-        <v>19.67122795119312</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>22.78594413640803</v>
+      </c>
+      <c r="N20">
+        <v>13.28964268059109</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.45923588007854</v>
+        <v>29.19454296917947</v>
       </c>
       <c r="C21">
-        <v>20.84543796544897</v>
+        <v>20.42951339764321</v>
       </c>
       <c r="D21">
-        <v>4.52443966323878</v>
+        <v>3.871557041763711</v>
       </c>
       <c r="E21">
-        <v>17.46788307664894</v>
+        <v>13.85786288270068</v>
       </c>
       <c r="F21">
-        <v>49.27161576441749</v>
+        <v>45.69870584493189</v>
       </c>
       <c r="I21">
-        <v>31.00666790581158</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.6968704089449</v>
+        <v>25.58928954903869</v>
       </c>
       <c r="L21">
-        <v>21.06742885097058</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>24.36090293625679</v>
+      </c>
+      <c r="N21">
+        <v>13.18193765721786</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.58408122475383</v>
+        <v>30.40442277430968</v>
       </c>
       <c r="C22">
-        <v>21.71593178468247</v>
+        <v>21.2766445468888</v>
       </c>
       <c r="D22">
-        <v>4.537886556025183</v>
+        <v>3.831902692700279</v>
       </c>
       <c r="E22">
-        <v>18.22470573121415</v>
+        <v>14.46319930208517</v>
       </c>
       <c r="F22">
-        <v>51.12260635228935</v>
+        <v>47.37063467667132</v>
       </c>
       <c r="I22">
-        <v>32.00218144345092</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.69813286960071</v>
+        <v>26.64039648101652</v>
       </c>
       <c r="L22">
-        <v>21.96200307691099</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>25.3664893182301</v>
+      </c>
+      <c r="N22">
+        <v>13.12151029797722</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.98622017744308</v>
+        <v>29.76138590935091</v>
       </c>
       <c r="C23">
-        <v>21.25300222360708</v>
+        <v>20.82626711240225</v>
       </c>
       <c r="D23">
-        <v>4.53013361350632</v>
+        <v>3.852638543151628</v>
       </c>
       <c r="E23">
-        <v>17.82192491847526</v>
+        <v>14.14103926495152</v>
       </c>
       <c r="F23">
-        <v>50.13507766812842</v>
+        <v>46.47848306436354</v>
       </c>
       <c r="I23">
-        <v>31.46974651182171</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.16586393363732</v>
+        <v>26.08172414773087</v>
       </c>
       <c r="L23">
-        <v>21.48603177331175</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>24.83181227328421</v>
+      </c>
+      <c r="N23">
+        <v>13.15277657559129</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.6643755984688</v>
+        <v>27.26392055561122</v>
       </c>
       <c r="C24">
-        <v>19.46058143380822</v>
+        <v>19.0798644427114</v>
       </c>
       <c r="D24">
-        <v>4.512559688424492</v>
+        <v>3.93983223034426</v>
       </c>
       <c r="E24">
-        <v>16.26873910836259</v>
+        <v>12.8988601852659</v>
       </c>
       <c r="F24">
-        <v>46.38259023863871</v>
+        <v>43.09240249406413</v>
       </c>
       <c r="I24">
-        <v>29.47532043061915</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.10072345306527</v>
+        <v>23.91230263474526</v>
       </c>
       <c r="L24">
-        <v>19.64807168439219</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>22.75977017741581</v>
+      </c>
+      <c r="N24">
+        <v>13.29155598236356</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.02086465325881</v>
+        <v>24.42159269791588</v>
       </c>
       <c r="C25">
-        <v>17.42953297337724</v>
+        <v>17.09683392936915</v>
       </c>
       <c r="D25">
-        <v>4.513883913707973</v>
+        <v>4.048327152153437</v>
       </c>
       <c r="E25">
-        <v>14.5203042833329</v>
+        <v>11.50139938483243</v>
       </c>
       <c r="F25">
-        <v>42.28885130266107</v>
+        <v>39.41020075596501</v>
       </c>
       <c r="I25">
-        <v>27.35993612432216</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.75318061118691</v>
+        <v>21.44357239696427</v>
       </c>
       <c r="L25">
-        <v>17.57442548534696</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>20.40952246726574</v>
+      </c>
+      <c r="N25">
+        <v>13.47759045000812</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_line/loading_percent.xlsx
@@ -421,37 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.18746187992205</v>
+        <v>16.07128983966395</v>
       </c>
       <c r="C2">
-        <v>15.5406635989599</v>
+        <v>7.701859124482515</v>
       </c>
       <c r="D2">
-        <v>4.137585723814887</v>
+        <v>5.234378961725498</v>
       </c>
       <c r="E2">
-        <v>10.58590433918948</v>
+        <v>6.300558212141573</v>
       </c>
       <c r="F2">
-        <v>36.66643470554066</v>
+        <v>30.60187671934475</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>22.38113055601181</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.50275356418744</v>
+        <v>13.18353088803872</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.27312411344847</v>
       </c>
       <c r="M2">
-        <v>18.56723006613511</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.63999717931615</v>
+        <v>14.90870819196135</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.57946947884561</v>
+        <v>15.11930119587911</v>
       </c>
       <c r="C3">
-        <v>14.42157381842011</v>
+        <v>7.187625231850562</v>
       </c>
       <c r="D3">
-        <v>4.202820266388355</v>
+        <v>5.28541393486701</v>
       </c>
       <c r="E3">
-        <v>9.960435054160083</v>
+        <v>6.211923104493069</v>
       </c>
       <c r="F3">
-        <v>34.78746696939602</v>
+        <v>29.78583490935504</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>22.14196654612711</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.10535764043161</v>
+        <v>12.44039735976239</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.064059136474027</v>
       </c>
       <c r="M3">
-        <v>17.2435870283016</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.76359557363847</v>
+        <v>15.08333305128732</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.54420121312083</v>
+        <v>14.51357827200424</v>
       </c>
       <c r="C4">
-        <v>13.70133651038373</v>
+        <v>6.855781820585048</v>
       </c>
       <c r="D4">
-        <v>4.244936624428473</v>
+        <v>5.316783729013951</v>
       </c>
       <c r="E4">
-        <v>9.569705123855876</v>
+        <v>6.16022472961554</v>
       </c>
       <c r="F4">
-        <v>33.62565465146447</v>
+        <v>29.29892609610661</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>22.00981178275006</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.20531542491737</v>
+        <v>11.96967781969798</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.937274929805549</v>
       </c>
       <c r="M4">
-        <v>16.39227274197939</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.84552020410393</v>
+        <v>15.19482655760526</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.11004569002591</v>
+        <v>14.26161933380281</v>
       </c>
       <c r="C5">
-        <v>13.399329087845</v>
+        <v>6.716468097152218</v>
       </c>
       <c r="D5">
-        <v>4.262583742993671</v>
+        <v>5.329589728038078</v>
       </c>
       <c r="E5">
-        <v>9.40888184860834</v>
+        <v>6.139846085827938</v>
       </c>
       <c r="F5">
-        <v>33.15052162348391</v>
+        <v>29.10419173333735</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>21.95955367346632</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.82776038037743</v>
+        <v>11.77441819585061</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.886063412973677</v>
       </c>
       <c r="M5">
-        <v>16.03544279381338</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.88033849258514</v>
+        <v>15.24132120014509</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.03720716430146</v>
+        <v>14.21947956087555</v>
       </c>
       <c r="C6">
-        <v>13.34866232767537</v>
+        <v>6.693087503680877</v>
       </c>
       <c r="D6">
-        <v>4.265542400801062</v>
+        <v>5.331717907965052</v>
       </c>
       <c r="E6">
-        <v>9.382084090634613</v>
+        <v>6.136503924498663</v>
       </c>
       <c r="F6">
-        <v>33.07153695625221</v>
+        <v>29.07208251223238</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>21.95142257010396</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.76441065513879</v>
+        <v>11.74179433539495</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.877588890349977</v>
       </c>
       <c r="M6">
-        <v>15.97558699190579</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.88620433668385</v>
+        <v>15.24910525455306</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.53839601372549</v>
+        <v>14.51020068867953</v>
       </c>
       <c r="C7">
-        <v>13.69729819584147</v>
+        <v>6.853919569906472</v>
       </c>
       <c r="D7">
-        <v>4.245172699310764</v>
+        <v>5.316956326062397</v>
       </c>
       <c r="E7">
-        <v>9.567542530177496</v>
+        <v>6.159947102586315</v>
       </c>
       <c r="F7">
-        <v>33.61925311101626</v>
+        <v>29.29628475180777</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>22.00911955777414</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.20026750357763</v>
+        <v>11.96705811305259</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.936582358894003</v>
       </c>
       <c r="M7">
-        <v>16.38750080719169</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.84598407629467</v>
+        <v>15.19544932539507</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.64284169304208</v>
+        <v>15.74755252897567</v>
       </c>
       <c r="C8">
-        <v>15.16156197096293</v>
+        <v>7.527869815015878</v>
       </c>
       <c r="D8">
-        <v>4.15962808241616</v>
+        <v>5.251977451528304</v>
       </c>
       <c r="E8">
-        <v>10.37166780547106</v>
+        <v>6.269434114398059</v>
       </c>
       <c r="F8">
-        <v>36.02042954246846</v>
+        <v>30.31764659003017</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>22.29555927469426</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.02952447340703</v>
+        <v>12.93039544479856</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.200742852176084</v>
       </c>
       <c r="M8">
-        <v>18.11871695838506</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.68130760780662</v>
+        <v>14.96802254366642</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.40015423039172</v>
+        <v>17.999236525505</v>
       </c>
       <c r="C9">
-        <v>17.77908904504713</v>
+        <v>8.723635568392904</v>
       </c>
       <c r="D9">
-        <v>4.010150680341281</v>
+        <v>5.124140647922903</v>
       </c>
       <c r="E9">
-        <v>11.98066958583075</v>
+        <v>6.505548537419191</v>
       </c>
       <c r="F9">
-        <v>40.6554256658302</v>
+        <v>32.42737922878096</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>22.97808214452711</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.29352641992527</v>
+        <v>15.0044019328481</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.729036156414066</v>
       </c>
       <c r="M9">
-        <v>21.21779864886834</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.41062582778799</v>
+        <v>14.55672639765523</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.95274916048407</v>
+        <v>19.6530947667173</v>
       </c>
       <c r="C10">
-        <v>19.56112727992739</v>
+        <v>9.528491691346849</v>
       </c>
       <c r="D10">
-        <v>3.914855272994927</v>
+        <v>5.028926113644881</v>
       </c>
       <c r="E10">
-        <v>13.24007479953842</v>
+        <v>6.691799179318653</v>
       </c>
       <c r="F10">
-        <v>44.01321914639981</v>
+        <v>34.03625649230717</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>23.55884199014297</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.51060773753303</v>
+        <v>16.43187999718419</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.120749867441166</v>
       </c>
       <c r="M10">
-        <v>23.33056844542287</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.25071332774535</v>
+        <v>14.27702274725305</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.07336063050909</v>
+        <v>20.39401847569301</v>
       </c>
       <c r="C11">
-        <v>20.34472378850462</v>
+        <v>9.879418016655041</v>
       </c>
       <c r="D11">
-        <v>3.875674327682838</v>
+        <v>4.985072422871621</v>
       </c>
       <c r="E11">
-        <v>13.79742096448717</v>
+        <v>6.779251478753427</v>
       </c>
       <c r="F11">
-        <v>45.5328302797141</v>
+        <v>34.78000773053385</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>23.84146630914563</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.48401891530886</v>
+        <v>17.0518052641862</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.299283648256059</v>
       </c>
       <c r="M11">
-        <v>24.2602788104715</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.18835927506658</v>
+        <v>14.1550409786306</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.49230942650943</v>
+        <v>20.6697699416177</v>
       </c>
       <c r="C12">
-        <v>20.6379014106134</v>
+        <v>10.01018926934237</v>
       </c>
       <c r="D12">
-        <v>3.861547588208965</v>
+        <v>4.968364715975688</v>
       </c>
       <c r="E12">
-        <v>14.00652378356565</v>
+        <v>6.81275583277402</v>
       </c>
       <c r="F12">
-        <v>46.10753747626221</v>
+        <v>35.0633062112008</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>23.95123941578648</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.84796445867195</v>
+        <v>17.28243385971654</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.366911240417913</v>
       </c>
       <c r="M12">
-        <v>24.60822730118595</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.16643691756162</v>
+        <v>14.10964582627726</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.4023140223686</v>
+        <v>20.61059452678935</v>
       </c>
       <c r="C13">
-        <v>20.57491249121967</v>
+        <v>9.982118305567928</v>
       </c>
       <c r="D13">
-        <v>3.86455641973547</v>
+        <v>4.971967924726011</v>
       </c>
       <c r="E13">
-        <v>13.96157153904734</v>
+        <v>6.805522856646588</v>
       </c>
       <c r="F13">
-        <v>45.98378862636643</v>
+        <v>35.00221961872506</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>23.92747390926968</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.7697829037853</v>
+        <v>17.23294542927108</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.352345871463019</v>
       </c>
       <c r="M13">
-        <v>24.53346623773412</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.17107967901026</v>
+        <v>14.11938632438114</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.10793337317715</v>
+        <v>20.41680068159126</v>
       </c>
       <c r="C14">
-        <v>20.36891279219671</v>
+        <v>9.890218648281438</v>
       </c>
       <c r="D14">
-        <v>3.874497156763774</v>
+        <v>4.983700042931673</v>
       </c>
       <c r="E14">
-        <v>13.81466130618116</v>
+        <v>6.782000141526387</v>
       </c>
       <c r="F14">
-        <v>45.58012367434635</v>
+        <v>34.80328185148591</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>23.85044172426897</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.51405197840725</v>
+        <v>17.0708612034604</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.304847129151071</v>
       </c>
       <c r="M14">
-        <v>24.28898465123932</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.18652061006281</v>
+        <v>14.15129006584003</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.92692706187506</v>
+        <v>20.29747190444435</v>
       </c>
       <c r="C15">
-        <v>20.24228013551677</v>
+        <v>9.833653956985081</v>
       </c>
       <c r="D15">
-        <v>3.880682339081706</v>
+        <v>4.99087237560182</v>
       </c>
       <c r="E15">
-        <v>13.72442956466231</v>
+        <v>6.767642247184725</v>
       </c>
       <c r="F15">
-        <v>45.33278595564812</v>
+        <v>34.68164144169964</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>23.80361834912215</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.35681451128901</v>
+        <v>16.9710463126164</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.275754773481173</v>
       </c>
       <c r="M15">
-        <v>24.13870997137942</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.19620502957679</v>
+        <v>14.1709371150972</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.87873364703409</v>
+        <v>19.60399321310042</v>
       </c>
       <c r="C16">
-        <v>19.50940068163777</v>
+        <v>9.505257641079918</v>
       </c>
       <c r="D16">
-        <v>3.917508661270747</v>
+        <v>5.031779222663495</v>
       </c>
       <c r="E16">
-        <v>13.20336120873103</v>
+        <v>6.686138449767295</v>
       </c>
       <c r="F16">
-        <v>43.91378057166071</v>
+        <v>33.98788435890557</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>23.54075109571308</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.44631788210335</v>
+        <v>16.39078321250008</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.109086526178579</v>
       </c>
       <c r="M16">
-        <v>23.26921097509126</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.25501341650143</v>
+        <v>14.28510364823485</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.22559728181759</v>
+        <v>19.16986644493787</v>
       </c>
       <c r="C17">
-        <v>19.05309775359231</v>
+        <v>9.299949832465609</v>
       </c>
       <c r="D17">
-        <v>3.94123975589125</v>
+        <v>5.056719844075077</v>
       </c>
       <c r="E17">
-        <v>12.87990671992265</v>
+        <v>6.636833449109545</v>
       </c>
       <c r="F17">
-        <v>43.04147989051705</v>
+        <v>33.5652804259833</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>23.38428079976917</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.87901631561661</v>
+        <v>16.02734578475555</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.006905677344514</v>
       </c>
       <c r="M17">
-        <v>22.72802837138398</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.29388139649689</v>
+        <v>14.35651434024506</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.84608205415728</v>
+        <v>18.91693853278284</v>
       </c>
       <c r="C18">
-        <v>18.78807442244931</v>
+        <v>9.18042630039171</v>
       </c>
       <c r="D18">
-        <v>3.955273788188445</v>
+        <v>5.071015735524995</v>
       </c>
       <c r="E18">
-        <v>12.69237989264505</v>
+        <v>6.608731258093196</v>
       </c>
       <c r="F18">
-        <v>42.538981650968</v>
+        <v>33.32332783357766</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>23.29601222469843</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.54938470928233</v>
+        <v>15.81552798288701</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.948167290885631</v>
       </c>
       <c r="M18">
-        <v>22.41377184381584</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.31720185680066</v>
+        <v>14.39807984174834</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.71691153557166</v>
+        <v>18.83074385992513</v>
       </c>
       <c r="C19">
-        <v>18.69789113898025</v>
+        <v>9.139709051712707</v>
       </c>
       <c r="D19">
-        <v>3.960088522076518</v>
+        <v>5.075848293842592</v>
       </c>
       <c r="E19">
-        <v>12.62862356331543</v>
+        <v>6.599260577829925</v>
       </c>
       <c r="F19">
-        <v>42.36870217097612</v>
+        <v>33.2416008924828</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>23.26642002072633</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.4371933192559</v>
+        <v>15.74332972638585</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.928286201690711</v>
       </c>
       <c r="M19">
-        <v>22.30684636005362</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.32525797874573</v>
+        <v>14.41223657235508</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.29552012444725</v>
+        <v>19.2164135344352</v>
       </c>
       <c r="C20">
-        <v>19.10193566122345</v>
+        <v>9.321953326716892</v>
       </c>
       <c r="D20">
-        <v>3.938673016282759</v>
+        <v>5.05407013764692</v>
       </c>
       <c r="E20">
-        <v>12.91449069285817</v>
+        <v>6.642055512055579</v>
       </c>
       <c r="F20">
-        <v>43.13441556897709</v>
+        <v>33.61015208840706</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>23.40075768423982</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.93974901059808</v>
+        <v>16.06632108045829</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.017779783896234</v>
       </c>
       <c r="M20">
-        <v>22.78594413640803</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.28964268059109</v>
+        <v>14.34886136129284</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.19454296917947</v>
+        <v>20.47385256365731</v>
       </c>
       <c r="C21">
-        <v>20.42951339764321</v>
+        <v>9.917268667497279</v>
       </c>
       <c r="D21">
-        <v>3.871557041763711</v>
+        <v>4.980256983634844</v>
       </c>
       <c r="E21">
-        <v>13.85786288270068</v>
+        <v>6.788898824549654</v>
       </c>
       <c r="F21">
-        <v>45.69870584493189</v>
+        <v>34.86166999325878</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>23.87299251607088</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.58928954903869</v>
+        <v>17.11858026836281</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.318798284400359</v>
       </c>
       <c r="M21">
-        <v>24.36090293625679</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.18193765721786</v>
+        <v>14.14189718064053</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.40442277430968</v>
+        <v>21.26762291341609</v>
       </c>
       <c r="C22">
-        <v>21.2766445468888</v>
+        <v>10.29404004955531</v>
       </c>
       <c r="D22">
-        <v>3.831902692700279</v>
+        <v>4.931412847446888</v>
       </c>
       <c r="E22">
-        <v>14.46319930208517</v>
+        <v>6.88713078978984</v>
       </c>
       <c r="F22">
-        <v>47.37063467667132</v>
+        <v>35.68926228937441</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>24.1977007164865</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.64039648101652</v>
+        <v>17.7823135864979</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.515644800883106</v>
       </c>
       <c r="M22">
-        <v>25.3664893182301</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.12151029797722</v>
+        <v>14.01130220389622</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.76138590935091</v>
+        <v>20.84650071543106</v>
       </c>
       <c r="C23">
-        <v>20.82626711240225</v>
+        <v>10.09405077093873</v>
       </c>
       <c r="D23">
-        <v>3.852638543151628</v>
+        <v>4.957545486086426</v>
       </c>
       <c r="E23">
-        <v>14.14103926495152</v>
+        <v>6.834496483704849</v>
       </c>
       <c r="F23">
-        <v>46.47848306436354</v>
+        <v>35.24668552312104</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>24.02289296394378</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.08172414773087</v>
+        <v>17.43022224477962</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.410580957732984</v>
       </c>
       <c r="M23">
-        <v>24.83181227328421</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.15277657559129</v>
+        <v>14.08056066174373</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.26392055561122</v>
+        <v>19.19538001452741</v>
       </c>
       <c r="C24">
-        <v>19.0798644427114</v>
+        <v>9.312010191112007</v>
       </c>
       <c r="D24">
-        <v>3.93983223034426</v>
+        <v>5.055268201494731</v>
       </c>
       <c r="E24">
-        <v>12.8988601852659</v>
+        <v>6.63969385734763</v>
       </c>
       <c r="F24">
-        <v>43.09240249406413</v>
+        <v>33.589862465772</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>23.39330323353822</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.91230263474526</v>
+        <v>16.04870930557306</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.012863577061294</v>
       </c>
       <c r="M24">
-        <v>22.75977017741581</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.29155598236356</v>
+        <v>14.35231968583924</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.42159269791588</v>
+        <v>17.4095376049841</v>
       </c>
       <c r="C25">
-        <v>17.09683392936915</v>
+        <v>8.413328476891465</v>
       </c>
       <c r="D25">
-        <v>4.048327152153437</v>
+        <v>5.158870088608317</v>
       </c>
       <c r="E25">
-        <v>11.50139938483243</v>
+        <v>6.439409189982436</v>
       </c>
       <c r="F25">
-        <v>39.41020075596501</v>
+        <v>31.84590503304016</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>22.77991589629479</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.44357239696427</v>
+        <v>14.45192156864358</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.585317184766162</v>
       </c>
       <c r="M25">
-        <v>20.40952246726574</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>13.47759045000812</v>
+        <v>14.66415784655794</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.07128983966395</v>
+        <v>16.14118879991443</v>
       </c>
       <c r="C2">
-        <v>7.701859124482515</v>
+        <v>4.714971814194778</v>
       </c>
       <c r="D2">
-        <v>5.234378961725498</v>
+        <v>7.602437512283195</v>
       </c>
       <c r="E2">
-        <v>6.300558212141573</v>
+        <v>9.938551248749587</v>
       </c>
       <c r="F2">
-        <v>30.60187671934475</v>
+        <v>37.75385985877477</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>22.38113055601181</v>
+        <v>31.0183022204402</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.18353088803872</v>
+        <v>13.98041708908117</v>
       </c>
       <c r="L2">
-        <v>7.27312411344847</v>
+        <v>10.35233306271483</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.90870819196135</v>
+        <v>22.18326019142633</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.11930119587911</v>
+        <v>15.94619127431526</v>
       </c>
       <c r="C3">
-        <v>7.187625231850562</v>
+        <v>4.457157147758807</v>
       </c>
       <c r="D3">
-        <v>5.28541393486701</v>
+        <v>7.609906557120054</v>
       </c>
       <c r="E3">
-        <v>6.211923104493069</v>
+        <v>9.947211762593216</v>
       </c>
       <c r="F3">
-        <v>29.78583490935504</v>
+        <v>37.67890564883056</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>22.14196654612711</v>
+        <v>31.04199030422727</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.44039735976239</v>
+        <v>13.84376505895687</v>
       </c>
       <c r="L3">
-        <v>7.064059136474027</v>
+        <v>10.34271338168329</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.08333305128732</v>
+        <v>22.23616157705349</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.51357827200424</v>
+        <v>15.82962789282467</v>
       </c>
       <c r="C4">
-        <v>6.855781820585048</v>
+        <v>4.290122461420085</v>
       </c>
       <c r="D4">
-        <v>5.316783729013951</v>
+        <v>7.614604908547721</v>
       </c>
       <c r="E4">
-        <v>6.16022472961554</v>
+        <v>9.954011870861304</v>
       </c>
       <c r="F4">
-        <v>29.29892609610661</v>
+        <v>37.64140246172956</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>22.00981178275006</v>
+        <v>31.06210622571418</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.96967781969798</v>
+        <v>13.76283001884176</v>
       </c>
       <c r="L4">
-        <v>6.937274929805549</v>
+        <v>10.33875354970148</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.19482655760526</v>
+        <v>22.27054980033538</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.26161933380281</v>
+        <v>15.78298076116343</v>
       </c>
       <c r="C5">
-        <v>6.716468097152218</v>
+        <v>4.219881956196169</v>
       </c>
       <c r="D5">
-        <v>5.329589728038078</v>
+        <v>7.616547982674423</v>
       </c>
       <c r="E5">
-        <v>6.139846085827938</v>
+        <v>9.957156025521193</v>
       </c>
       <c r="F5">
-        <v>29.10419173333735</v>
+        <v>37.62826945504845</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>21.95955367346632</v>
+        <v>31.07170291591033</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.77441819585061</v>
+        <v>13.73063072870052</v>
       </c>
       <c r="L5">
-        <v>6.886063412973677</v>
+        <v>10.33763088198543</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.24132120014509</v>
+        <v>22.28504317742446</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.21947956087555</v>
+        <v>15.77528822334052</v>
       </c>
       <c r="C6">
-        <v>6.693087503680877</v>
+        <v>4.208088178793431</v>
       </c>
       <c r="D6">
-        <v>5.331717907965052</v>
+        <v>7.616872353647087</v>
       </c>
       <c r="E6">
-        <v>6.136503924498663</v>
+        <v>9.957700647828419</v>
       </c>
       <c r="F6">
-        <v>29.07208251223238</v>
+        <v>37.62621876036369</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>21.95142257010396</v>
+        <v>31.07338089545446</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.74179433539495</v>
+        <v>13.7253323245896</v>
       </c>
       <c r="L6">
-        <v>6.877588890349977</v>
+        <v>10.3374741563766</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.24910525455306</v>
+        <v>22.28747879053432</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.51020068867953</v>
+        <v>15.82899526354918</v>
       </c>
       <c r="C7">
-        <v>6.853919569906472</v>
+        <v>4.289183933733484</v>
       </c>
       <c r="D7">
-        <v>5.316956326062397</v>
+        <v>7.61463099803536</v>
       </c>
       <c r="E7">
-        <v>6.159947102586315</v>
+        <v>9.954052763246946</v>
       </c>
       <c r="F7">
-        <v>29.29628475180777</v>
+        <v>37.64121663218338</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>22.00911955777414</v>
+        <v>31.06222998696243</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.96705811305259</v>
+        <v>13.76239255424162</v>
       </c>
       <c r="L7">
-        <v>6.936582358894003</v>
+        <v>10.3387364192484</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.19544932539507</v>
+        <v>22.27074331940016</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.74755252897567</v>
+        <v>16.07333145965082</v>
       </c>
       <c r="C8">
-        <v>7.527869815015878</v>
+        <v>4.627903070063601</v>
       </c>
       <c r="D8">
-        <v>5.251977451528304</v>
+        <v>7.604989653914703</v>
       </c>
       <c r="E8">
-        <v>6.269434114398059</v>
+        <v>9.941229876895443</v>
       </c>
       <c r="F8">
-        <v>30.31764659003017</v>
+        <v>37.72625270988098</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>22.29555927469426</v>
+        <v>31.02531265243606</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.93039544479856</v>
+        <v>13.93270490890872</v>
       </c>
       <c r="L8">
-        <v>7.200742852176084</v>
+        <v>10.34861313697545</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.96802254366642</v>
+        <v>22.20110516953982</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.999236525505</v>
+        <v>16.57500271281521</v>
       </c>
       <c r="C9">
-        <v>8.723635568392904</v>
+        <v>5.222029863805464</v>
       </c>
       <c r="D9">
-        <v>5.124140647922903</v>
+        <v>7.586964278748884</v>
       </c>
       <c r="E9">
-        <v>6.505548537419191</v>
+        <v>9.927833649374593</v>
       </c>
       <c r="F9">
-        <v>32.42737922878096</v>
+        <v>37.96018208884475</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>22.97808214452711</v>
+        <v>30.99718470839053</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.0044019328481</v>
+        <v>14.28861576209479</v>
       </c>
       <c r="L9">
-        <v>7.729036156414066</v>
+        <v>10.38335069873549</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.55672639765523</v>
+        <v>22.07965062623</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.6530947667173</v>
+        <v>16.95377678489793</v>
       </c>
       <c r="C10">
-        <v>9.528491691346849</v>
+        <v>5.615050713781692</v>
       </c>
       <c r="D10">
-        <v>5.028926113644881</v>
+        <v>7.574243821411605</v>
       </c>
       <c r="E10">
-        <v>6.691799179318653</v>
+        <v>9.925132632703974</v>
       </c>
       <c r="F10">
-        <v>34.03625649230717</v>
+        <v>38.17231739666796</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>23.55884199014297</v>
+        <v>31.00356771817159</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.43187999718419</v>
+        <v>14.56119984134623</v>
       </c>
       <c r="L10">
-        <v>8.120749867441166</v>
+        <v>10.41812218228075</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.27702274725305</v>
+        <v>21.99959563387453</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.39401847569301</v>
+        <v>17.12754711217011</v>
       </c>
       <c r="C11">
-        <v>9.879418016655041</v>
+        <v>5.784314008354164</v>
       </c>
       <c r="D11">
-        <v>4.985072422871621</v>
+        <v>7.568567353477798</v>
       </c>
       <c r="E11">
-        <v>6.779251478753427</v>
+        <v>9.925448254422871</v>
       </c>
       <c r="F11">
-        <v>34.78000773053385</v>
+        <v>38.27738100427614</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>23.84146630914563</v>
+        <v>31.01234896041705</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.0518052641862</v>
+        <v>14.68711586200626</v>
       </c>
       <c r="L11">
-        <v>8.299283648256059</v>
+        <v>10.43591742168708</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.1550409786306</v>
+        <v>21.96516308156763</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.6697699416177</v>
+        <v>17.19349710297069</v>
       </c>
       <c r="C12">
-        <v>10.01018926934237</v>
+        <v>5.847035573848112</v>
       </c>
       <c r="D12">
-        <v>4.968364715975688</v>
+        <v>7.566433428165451</v>
       </c>
       <c r="E12">
-        <v>6.81275583277402</v>
+        <v>9.925789139298526</v>
       </c>
       <c r="F12">
-        <v>35.0633062112008</v>
+        <v>38.31837823184302</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>23.95123941578648</v>
+        <v>31.0165187554083</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.28243385971654</v>
+        <v>14.73503021523648</v>
       </c>
       <c r="L12">
-        <v>8.366911240417913</v>
+        <v>10.44293717139401</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.10964582627726</v>
+        <v>21.95240939979748</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.61059452678935</v>
+        <v>17.17928805913366</v>
       </c>
       <c r="C13">
-        <v>9.982118305567928</v>
+        <v>5.833588567973571</v>
       </c>
       <c r="D13">
-        <v>4.971967924726011</v>
+        <v>7.566892315299771</v>
       </c>
       <c r="E13">
-        <v>6.805522856646588</v>
+        <v>9.9257058905844</v>
       </c>
       <c r="F13">
-        <v>35.00221961872506</v>
+        <v>38.30949517181314</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>23.92747390926968</v>
+        <v>31.01558317066608</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.23294542927108</v>
+        <v>14.7247013346</v>
       </c>
       <c r="L13">
-        <v>8.352345871463019</v>
+        <v>10.44141289712712</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.11938632438114</v>
+        <v>21.95514345359132</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.41680068159126</v>
+        <v>17.13297027344466</v>
       </c>
       <c r="C14">
-        <v>9.890218648281438</v>
+        <v>5.789501724624587</v>
       </c>
       <c r="D14">
-        <v>4.983700042931673</v>
+        <v>7.568391482094962</v>
       </c>
       <c r="E14">
-        <v>6.782000141526387</v>
+        <v>9.925471867104722</v>
       </c>
       <c r="F14">
-        <v>34.80328185148591</v>
+        <v>38.28072969931318</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>23.85044172426897</v>
+        <v>31.0126750919212</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.0708612034604</v>
+        <v>14.69105338647547</v>
       </c>
       <c r="L14">
-        <v>8.304847129151071</v>
+        <v>10.436489327362</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.15129006584003</v>
+        <v>21.96410811440602</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.29747190444435</v>
+        <v>17.1046165574532</v>
       </c>
       <c r="C15">
-        <v>9.833653956985081</v>
+        <v>5.762318103348362</v>
       </c>
       <c r="D15">
-        <v>4.99087237560182</v>
+        <v>7.569311794389817</v>
       </c>
       <c r="E15">
-        <v>6.767642247184725</v>
+        <v>9.925357326765564</v>
       </c>
       <c r="F15">
-        <v>34.68164144169964</v>
+        <v>38.26326724006557</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>23.80361834912215</v>
+        <v>31.01100376411511</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.9710463126164</v>
+        <v>14.67047207875374</v>
       </c>
       <c r="L15">
-        <v>8.275754773481173</v>
+        <v>10.43351000086108</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.1709371150972</v>
+        <v>21.96963635982538</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.60399321310042</v>
+        <v>16.94244448914608</v>
       </c>
       <c r="C16">
-        <v>9.505257641079918</v>
+        <v>5.603796818454523</v>
       </c>
       <c r="D16">
-        <v>5.031779222663495</v>
+        <v>7.574616990365565</v>
       </c>
       <c r="E16">
-        <v>6.686138449767295</v>
+        <v>9.925143023620633</v>
       </c>
       <c r="F16">
-        <v>33.98788435890557</v>
+        <v>38.16562192713796</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>23.54075109571308</v>
+        <v>31.00311207041839</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.39078321250008</v>
+        <v>14.55300582779606</v>
       </c>
       <c r="L16">
-        <v>8.109086526178579</v>
+        <v>10.41699874019024</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.28510364823485</v>
+        <v>22.00188580146367</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.16986644493787</v>
+        <v>16.84328663980045</v>
       </c>
       <c r="C17">
-        <v>9.299949832465609</v>
+        <v>5.504105443785918</v>
       </c>
       <c r="D17">
-        <v>5.056719844075077</v>
+        <v>7.577899616179804</v>
       </c>
       <c r="E17">
-        <v>6.636833449109545</v>
+        <v>9.925406621661793</v>
       </c>
       <c r="F17">
-        <v>33.5652804259833</v>
+        <v>38.10789951980728</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>23.38428079976917</v>
+        <v>30.99977585215266</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.02734578475555</v>
+        <v>14.48140437743187</v>
       </c>
       <c r="L17">
-        <v>8.006905677344514</v>
+        <v>10.40737386360281</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.35651434024506</v>
+        <v>22.02217798145907</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.91693853278284</v>
+        <v>16.78639523560454</v>
       </c>
       <c r="C18">
-        <v>9.18042630039171</v>
+        <v>5.44586933755812</v>
       </c>
       <c r="D18">
-        <v>5.071015735524995</v>
+        <v>7.579798074119743</v>
       </c>
       <c r="E18">
-        <v>6.608731258093196</v>
+        <v>9.925703643892172</v>
       </c>
       <c r="F18">
-        <v>33.32332783357766</v>
+        <v>38.07550630683651</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>23.29601222469843</v>
+        <v>30.99841024439702</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.81552798288701</v>
+        <v>14.44040404724464</v>
       </c>
       <c r="L18">
-        <v>7.948167290885631</v>
+        <v>10.40202423827965</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.39807984174834</v>
+        <v>22.03403634459961</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.83074385992513</v>
+        <v>16.76715905078292</v>
       </c>
       <c r="C19">
-        <v>9.139709051712707</v>
+        <v>5.425997852851838</v>
       </c>
       <c r="D19">
-        <v>5.075848293842592</v>
+        <v>7.580442648194269</v>
       </c>
       <c r="E19">
-        <v>6.599260577829925</v>
+        <v>9.9258292044179</v>
       </c>
       <c r="F19">
-        <v>33.2416008924828</v>
+        <v>38.06467771530889</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>23.26642002072633</v>
+        <v>30.99804291422321</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.74332972638585</v>
+        <v>14.42655476404183</v>
       </c>
       <c r="L19">
-        <v>7.928286201690711</v>
+        <v>10.4002450479126</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.41223657235508</v>
+        <v>22.03808347999336</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.2164135344352</v>
+        <v>16.853827974039</v>
       </c>
       <c r="C20">
-        <v>9.321953326716892</v>
+        <v>5.514810565374409</v>
       </c>
       <c r="D20">
-        <v>5.05407013764692</v>
+        <v>7.577549102419227</v>
       </c>
       <c r="E20">
-        <v>6.642055512055579</v>
+        <v>9.925363516888117</v>
       </c>
       <c r="F20">
-        <v>33.61015208840706</v>
+        <v>38.11396076154885</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>23.40075768423982</v>
+        <v>31.00007373725082</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.06632108045829</v>
+        <v>14.48900785193391</v>
       </c>
       <c r="L20">
-        <v>8.017779783896234</v>
+        <v>10.40837918456526</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.34886136129284</v>
+        <v>22.01999850902004</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.47385256365731</v>
+        <v>17.14657144384803</v>
       </c>
       <c r="C21">
-        <v>9.917268667497279</v>
+        <v>5.802488441879781</v>
       </c>
       <c r="D21">
-        <v>4.980256983634844</v>
+        <v>7.567950717919447</v>
       </c>
       <c r="E21">
-        <v>6.788898824549654</v>
+        <v>9.925534603763483</v>
       </c>
       <c r="F21">
-        <v>34.86166999325878</v>
+        <v>38.28914608769539</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>23.87299251607088</v>
+        <v>31.01350635262741</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.11858026836281</v>
+        <v>14.70093063055854</v>
       </c>
       <c r="L21">
-        <v>8.318798284400359</v>
+        <v>10.43792789841698</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.14189718064053</v>
+        <v>21.96146723837947</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.26762291341609</v>
+        <v>17.33872398274552</v>
       </c>
       <c r="C22">
-        <v>10.29404004955531</v>
+        <v>5.982488270641579</v>
       </c>
       <c r="D22">
-        <v>4.931412847446888</v>
+        <v>7.56176862639069</v>
       </c>
       <c r="E22">
-        <v>6.88713078978984</v>
+        <v>9.926936314453819</v>
       </c>
       <c r="F22">
-        <v>35.68926228937441</v>
+        <v>38.41069358841626</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>24.1977007164865</v>
+        <v>31.02720724094753</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.7823135864979</v>
+        <v>14.84077092944439</v>
       </c>
       <c r="L22">
-        <v>8.515644800883106</v>
+        <v>10.45887630047193</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.01130220389622</v>
+        <v>21.92487581086609</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.84650071543106</v>
+        <v>17.23611355096811</v>
       </c>
       <c r="C23">
-        <v>10.09405077093873</v>
+        <v>5.887153509513069</v>
       </c>
       <c r="D23">
-        <v>4.957545486086426</v>
+        <v>7.565059865953917</v>
       </c>
       <c r="E23">
-        <v>6.834496483704849</v>
+        <v>9.926070427078294</v>
       </c>
       <c r="F23">
-        <v>35.24668552312104</v>
+        <v>38.34518282887214</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>24.02289296394378</v>
+        <v>31.01944481412901</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.43022224477962</v>
+        <v>14.76602736731553</v>
       </c>
       <c r="L23">
-        <v>8.410580957732984</v>
+        <v>10.44754715623637</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.08056066174373</v>
+        <v>21.94425333293493</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.19538001452741</v>
+        <v>16.84906187134824</v>
       </c>
       <c r="C24">
-        <v>9.312010191112007</v>
+        <v>5.50997365204833</v>
       </c>
       <c r="D24">
-        <v>5.055268201494731</v>
+        <v>7.577707534656808</v>
       </c>
       <c r="E24">
-        <v>6.63969385734763</v>
+        <v>9.925382551370623</v>
       </c>
       <c r="F24">
-        <v>33.589862465772</v>
+        <v>38.11121800503228</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>23.39330323353822</v>
+        <v>30.99993734246426</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.04870930557306</v>
+        <v>14.48556980605158</v>
       </c>
       <c r="L24">
-        <v>8.012863577061294</v>
+        <v>10.40792410605801</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.35231968583924</v>
+        <v>22.02098324997944</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.4095376049841</v>
+        <v>16.43723882974677</v>
       </c>
       <c r="C25">
-        <v>8.413328476891465</v>
+        <v>5.068898992790525</v>
       </c>
       <c r="D25">
-        <v>5.158870088608317</v>
+        <v>7.591747772672372</v>
       </c>
       <c r="E25">
-        <v>6.439409189982436</v>
+        <v>9.930201710056439</v>
       </c>
       <c r="F25">
-        <v>31.84590503304016</v>
+        <v>37.88976931403761</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>22.77991589629479</v>
+        <v>31.00004669632435</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.45192156864358</v>
+        <v>14.19021587105771</v>
       </c>
       <c r="L25">
-        <v>7.585317184766162</v>
+        <v>10.37231901989337</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.66415784655794</v>
+        <v>22.11089343246495</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.14118879991443</v>
+        <v>16.07128983966396</v>
       </c>
       <c r="C2">
-        <v>4.714971814194778</v>
+        <v>7.701859124482707</v>
       </c>
       <c r="D2">
-        <v>7.602437512283195</v>
+        <v>5.234378961725498</v>
       </c>
       <c r="E2">
-        <v>9.938551248749587</v>
+        <v>6.30055821214172</v>
       </c>
       <c r="F2">
-        <v>37.75385985877477</v>
+        <v>30.60187671934464</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>31.0183022204402</v>
+        <v>22.38113055601175</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.98041708908117</v>
+        <v>13.1835308880387</v>
       </c>
       <c r="L2">
-        <v>10.35233306271483</v>
+        <v>7.273124113448522</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.18326019142633</v>
+        <v>14.90870819196133</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.94619127431526</v>
+        <v>15.1193011958791</v>
       </c>
       <c r="C3">
-        <v>4.457157147758807</v>
+        <v>7.187625231850475</v>
       </c>
       <c r="D3">
-        <v>7.609906557120054</v>
+        <v>5.28541393486701</v>
       </c>
       <c r="E3">
-        <v>9.947211762593216</v>
+        <v>6.211923104493041</v>
       </c>
       <c r="F3">
-        <v>37.67890564883056</v>
+        <v>29.78583490935494</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>31.04199030422727</v>
+        <v>22.141966546127</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.84376505895687</v>
+        <v>12.44039735976237</v>
       </c>
       <c r="L3">
-        <v>10.34271338168329</v>
+        <v>7.06405913647399</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.23616157705349</v>
+        <v>15.08333305128724</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.82962789282467</v>
+        <v>14.51357827200423</v>
       </c>
       <c r="C4">
-        <v>4.290122461420085</v>
+        <v>6.855781820584974</v>
       </c>
       <c r="D4">
-        <v>7.614604908547721</v>
+        <v>5.316783729013884</v>
       </c>
       <c r="E4">
-        <v>9.954011870861304</v>
+        <v>6.160224729615441</v>
       </c>
       <c r="F4">
-        <v>37.64140246172956</v>
+        <v>29.29892609610663</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>31.06210622571418</v>
+        <v>22.00981178275006</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.76283001884176</v>
+        <v>11.96967781969798</v>
       </c>
       <c r="L4">
-        <v>10.33875354970148</v>
+        <v>6.937274929805508</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.27054980033538</v>
+        <v>15.19482655760526</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.78298076116343</v>
+        <v>14.26161933380279</v>
       </c>
       <c r="C5">
-        <v>4.219881956196169</v>
+        <v>6.716468097152005</v>
       </c>
       <c r="D5">
-        <v>7.616547982674423</v>
+        <v>5.329589728038077</v>
       </c>
       <c r="E5">
-        <v>9.957156025521193</v>
+        <v>6.139846085827985</v>
       </c>
       <c r="F5">
-        <v>37.62826945504845</v>
+        <v>29.10419173333726</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>31.07170291591033</v>
+        <v>21.95955367346618</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.73063072870052</v>
+        <v>11.77441819585061</v>
       </c>
       <c r="L5">
-        <v>10.33763088198543</v>
+        <v>6.886063412973724</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.28504317742446</v>
+        <v>15.24132120014497</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.77528822334052</v>
+        <v>14.21947956087557</v>
       </c>
       <c r="C6">
-        <v>4.208088178793431</v>
+        <v>6.693087503680796</v>
       </c>
       <c r="D6">
-        <v>7.616872353647087</v>
+        <v>5.331717907965119</v>
       </c>
       <c r="E6">
-        <v>9.957700647828419</v>
+        <v>6.136503924498572</v>
       </c>
       <c r="F6">
-        <v>37.62621876036369</v>
+        <v>29.07208251223249</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>31.07338089545446</v>
+        <v>21.95142257010407</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.7253323245896</v>
+        <v>11.74179433539498</v>
       </c>
       <c r="L6">
-        <v>10.3374741563766</v>
+        <v>6.877588890349896</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.28747879053432</v>
+        <v>15.24910525455319</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.82899526354918</v>
+        <v>14.51020068867953</v>
       </c>
       <c r="C7">
-        <v>4.289183933733484</v>
+        <v>6.853919569906378</v>
       </c>
       <c r="D7">
-        <v>7.61463099803536</v>
+        <v>5.316956326062397</v>
       </c>
       <c r="E7">
-        <v>9.954052763246946</v>
+        <v>6.159947102586385</v>
       </c>
       <c r="F7">
-        <v>37.64121663218338</v>
+        <v>29.29628475180749</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>31.06222998696243</v>
+        <v>22.00911955777392</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.76239255424162</v>
+        <v>11.96705811305256</v>
       </c>
       <c r="L7">
-        <v>10.3387364192484</v>
+        <v>6.936582358894011</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.27074331940016</v>
+        <v>15.19544932539493</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.07333145965082</v>
+        <v>15.74755252897568</v>
       </c>
       <c r="C8">
-        <v>4.627903070063601</v>
+        <v>7.527869815015878</v>
       </c>
       <c r="D8">
-        <v>7.604989653914703</v>
+        <v>5.251977451528369</v>
       </c>
       <c r="E8">
-        <v>9.941229876895443</v>
+        <v>6.269434114398016</v>
       </c>
       <c r="F8">
-        <v>37.72625270988098</v>
+        <v>30.31764659003011</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>31.02531265243606</v>
+        <v>22.29555927469422</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.93270490890872</v>
+        <v>12.93039544479858</v>
       </c>
       <c r="L8">
-        <v>10.34861313697545</v>
+        <v>7.200742852176095</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.20110516953982</v>
+        <v>14.96802254366639</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.57500271281521</v>
+        <v>17.99923652550505</v>
       </c>
       <c r="C9">
-        <v>5.222029863805464</v>
+        <v>8.723635568392867</v>
       </c>
       <c r="D9">
-        <v>7.586964278748884</v>
+        <v>5.124140647922835</v>
       </c>
       <c r="E9">
-        <v>9.927833649374593</v>
+        <v>6.505548537419322</v>
       </c>
       <c r="F9">
-        <v>37.96018208884475</v>
+        <v>32.42737922878116</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>30.99718470839053</v>
+        <v>22.97808214452724</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.28861576209479</v>
+        <v>15.00440193284808</v>
       </c>
       <c r="L9">
-        <v>10.38335069873549</v>
+        <v>7.72903615641409</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.07965062623</v>
+        <v>14.5567263976553</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.95377678489793</v>
+        <v>19.6530947667173</v>
       </c>
       <c r="C10">
-        <v>5.615050713781692</v>
+        <v>9.52849169134665</v>
       </c>
       <c r="D10">
-        <v>7.574243821411605</v>
+        <v>5.028926113644885</v>
       </c>
       <c r="E10">
-        <v>9.925132632703974</v>
+        <v>6.691799179318579</v>
       </c>
       <c r="F10">
-        <v>38.17231739666796</v>
+        <v>34.03625649230727</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>31.00356771817159</v>
+        <v>23.55884199014301</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.56119984134623</v>
+        <v>16.43187999718414</v>
       </c>
       <c r="L10">
-        <v>10.41812218228075</v>
+        <v>8.120749867441175</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.99959563387453</v>
+        <v>14.2770227472531</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.12754711217011</v>
+        <v>20.394018475693</v>
       </c>
       <c r="C11">
-        <v>5.784314008354164</v>
+        <v>9.879418016655034</v>
       </c>
       <c r="D11">
-        <v>7.568567353477798</v>
+        <v>4.985072422871687</v>
       </c>
       <c r="E11">
-        <v>9.925448254422871</v>
+        <v>6.779251478753473</v>
       </c>
       <c r="F11">
-        <v>38.27738100427614</v>
+        <v>34.78000773053401</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>31.01234896041705</v>
+        <v>23.84146630914582</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.68711586200626</v>
+        <v>17.05180526418618</v>
       </c>
       <c r="L11">
-        <v>10.43591742168708</v>
+        <v>8.299283648256081</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.96516308156763</v>
+        <v>14.15504097863074</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.19349710297069</v>
+        <v>20.66976994161764</v>
       </c>
       <c r="C12">
-        <v>5.847035573848112</v>
+        <v>10.01018926934235</v>
       </c>
       <c r="D12">
-        <v>7.566433428165451</v>
+        <v>4.968364715975757</v>
       </c>
       <c r="E12">
-        <v>9.925789139298526</v>
+        <v>6.812755832774016</v>
       </c>
       <c r="F12">
-        <v>38.31837823184302</v>
+        <v>35.06330621120085</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>31.0165187554083</v>
+        <v>23.95123941578656</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.73503021523648</v>
+        <v>17.28243385971649</v>
       </c>
       <c r="L12">
-        <v>10.44293717139401</v>
+        <v>8.366911240417894</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.95240939979748</v>
+        <v>14.10964582627731</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.17928805913366</v>
+        <v>20.61059452678938</v>
       </c>
       <c r="C13">
-        <v>5.833588567973571</v>
+        <v>9.982118305568005</v>
       </c>
       <c r="D13">
-        <v>7.566892315299771</v>
+        <v>4.971967924726008</v>
       </c>
       <c r="E13">
-        <v>9.9257058905844</v>
+        <v>6.805522856646581</v>
       </c>
       <c r="F13">
-        <v>38.30949517181314</v>
+        <v>35.00221961872504</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>31.01558317066608</v>
+        <v>23.92747390926963</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.7247013346</v>
+        <v>17.23294542927114</v>
       </c>
       <c r="L13">
-        <v>10.44141289712712</v>
+        <v>8.352345871463005</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.95514345359132</v>
+        <v>14.11938632438107</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.13297027344466</v>
+        <v>20.4168006815913</v>
       </c>
       <c r="C14">
-        <v>5.789501724624587</v>
+        <v>9.890218648281483</v>
       </c>
       <c r="D14">
-        <v>7.568391482094962</v>
+        <v>4.983700042931606</v>
       </c>
       <c r="E14">
-        <v>9.925471867104722</v>
+        <v>6.782000141526408</v>
       </c>
       <c r="F14">
-        <v>38.28072969931318</v>
+        <v>34.80328185148591</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>31.0126750919212</v>
+        <v>23.85044172426895</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.69105338647547</v>
+        <v>17.07086120346044</v>
       </c>
       <c r="L14">
-        <v>10.436489327362</v>
+        <v>8.304847129151053</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.96410811440602</v>
+        <v>14.15129006583994</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.1046165574532</v>
+        <v>20.29747190444436</v>
       </c>
       <c r="C15">
-        <v>5.762318103348362</v>
+        <v>9.833653956984934</v>
       </c>
       <c r="D15">
-        <v>7.569311794389817</v>
+        <v>4.99087237560202</v>
       </c>
       <c r="E15">
-        <v>9.925357326765564</v>
+        <v>6.767642247184634</v>
       </c>
       <c r="F15">
-        <v>38.26326724006557</v>
+        <v>34.68164144169968</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>31.01100376411511</v>
+        <v>23.80361834912215</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.67047207875374</v>
+        <v>16.97104631261637</v>
       </c>
       <c r="L15">
-        <v>10.43351000086108</v>
+        <v>8.27575477348115</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.96963635982538</v>
+        <v>14.17093711509713</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.94244448914608</v>
+        <v>19.60399321310037</v>
       </c>
       <c r="C16">
-        <v>5.603796818454523</v>
+        <v>9.50525764107984</v>
       </c>
       <c r="D16">
-        <v>7.574616990365565</v>
+        <v>5.031779222663491</v>
       </c>
       <c r="E16">
-        <v>9.925143023620633</v>
+        <v>6.686138449767287</v>
       </c>
       <c r="F16">
-        <v>38.16562192713796</v>
+        <v>33.98788435890567</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>31.00311207041839</v>
+        <v>23.54075109571322</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.55300582779606</v>
+        <v>16.39078321250002</v>
       </c>
       <c r="L16">
-        <v>10.41699874019024</v>
+        <v>8.109086526178567</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.00188580146367</v>
+        <v>14.28510364823486</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.84328663980045</v>
+        <v>19.16986644493798</v>
       </c>
       <c r="C17">
-        <v>5.504105443785918</v>
+        <v>9.2999498324657</v>
       </c>
       <c r="D17">
-        <v>7.577899616179804</v>
+        <v>5.056719844075074</v>
       </c>
       <c r="E17">
-        <v>9.925406621661793</v>
+        <v>6.636833449109434</v>
       </c>
       <c r="F17">
-        <v>38.10789951980728</v>
+        <v>33.56528042598324</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>30.99977585215266</v>
+        <v>23.38428079976906</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.48140437743187</v>
+        <v>16.02734578475564</v>
       </c>
       <c r="L17">
-        <v>10.40737386360281</v>
+        <v>8.00690567734447</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.02217798145907</v>
+        <v>14.35651434024499</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.78639523560454</v>
+        <v>18.91693853278286</v>
       </c>
       <c r="C18">
-        <v>5.44586933755812</v>
+        <v>9.180426300391559</v>
       </c>
       <c r="D18">
-        <v>7.579798074119743</v>
+        <v>5.071015735525062</v>
       </c>
       <c r="E18">
-        <v>9.925703643892172</v>
+        <v>6.608731258093117</v>
       </c>
       <c r="F18">
-        <v>38.07550630683651</v>
+        <v>33.32332783357779</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>30.99841024439702</v>
+        <v>23.29601222469858</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.44040404724464</v>
+        <v>15.81552798288697</v>
       </c>
       <c r="L18">
-        <v>10.40202423827965</v>
+        <v>7.948167290885609</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.03403634459961</v>
+        <v>14.39807984174846</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.76715905078292</v>
+        <v>18.83074385992514</v>
       </c>
       <c r="C19">
-        <v>5.425997852851838</v>
+        <v>9.139709051712686</v>
       </c>
       <c r="D19">
-        <v>7.580442648194269</v>
+        <v>5.075848293842725</v>
       </c>
       <c r="E19">
-        <v>9.9258292044179</v>
+        <v>6.59926057782993</v>
       </c>
       <c r="F19">
-        <v>38.06467771530889</v>
+        <v>33.24160089248279</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>30.99804291422321</v>
+        <v>23.26642002072632</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.42655476404183</v>
+        <v>15.74332972638584</v>
       </c>
       <c r="L19">
-        <v>10.4002450479126</v>
+        <v>7.928286201690717</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.03808347999336</v>
+        <v>14.41223657235506</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.853827974039</v>
+        <v>19.2164135344352</v>
       </c>
       <c r="C20">
-        <v>5.514810565374409</v>
+        <v>9.32195332671701</v>
       </c>
       <c r="D20">
-        <v>7.577549102419227</v>
+        <v>5.054070137647122</v>
       </c>
       <c r="E20">
-        <v>9.925363516888117</v>
+        <v>6.642055512055582</v>
       </c>
       <c r="F20">
-        <v>38.11396076154885</v>
+        <v>33.61015208840698</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>31.00007373725082</v>
+        <v>23.40075768423982</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.48900785193391</v>
+        <v>16.0663210804583</v>
       </c>
       <c r="L20">
-        <v>10.40837918456526</v>
+        <v>8.01777978389622</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.01999850902004</v>
+        <v>14.34886136129281</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.14657144384803</v>
+        <v>20.4738525636573</v>
       </c>
       <c r="C21">
-        <v>5.802488441879781</v>
+        <v>9.91726866749743</v>
       </c>
       <c r="D21">
-        <v>7.567950717919447</v>
+        <v>4.98025698363491</v>
       </c>
       <c r="E21">
-        <v>9.925534603763483</v>
+        <v>6.788898824549694</v>
       </c>
       <c r="F21">
-        <v>38.28914608769539</v>
+        <v>34.86166999325878</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>31.01350635262741</v>
+        <v>23.87299251607092</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.70093063055854</v>
+        <v>17.11858026836283</v>
       </c>
       <c r="L21">
-        <v>10.43792789841698</v>
+        <v>8.318798284400353</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.96146723837947</v>
+        <v>14.14189718064051</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.33872398274552</v>
+        <v>21.26762291341608</v>
       </c>
       <c r="C22">
-        <v>5.982488270641579</v>
+        <v>10.29404004955523</v>
       </c>
       <c r="D22">
-        <v>7.56176862639069</v>
+        <v>4.931412847446887</v>
       </c>
       <c r="E22">
-        <v>9.926936314453819</v>
+        <v>6.887130789789878</v>
       </c>
       <c r="F22">
-        <v>38.41069358841626</v>
+        <v>35.6892622893745</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>31.02720724094753</v>
+        <v>24.19770071648654</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.84077092944439</v>
+        <v>17.78231358649787</v>
       </c>
       <c r="L22">
-        <v>10.45887630047193</v>
+        <v>8.515644800883114</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.92487581086609</v>
+        <v>14.01130220389631</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.23611355096811</v>
+        <v>20.84650071543106</v>
       </c>
       <c r="C23">
-        <v>5.887153509513069</v>
+        <v>10.09405077093867</v>
       </c>
       <c r="D23">
-        <v>7.565059865953917</v>
+        <v>4.957545486086561</v>
       </c>
       <c r="E23">
-        <v>9.926070427078294</v>
+        <v>6.834496483704841</v>
       </c>
       <c r="F23">
-        <v>38.34518282887214</v>
+        <v>35.24668552312105</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>31.01944481412901</v>
+        <v>24.02289296394378</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.76602736731553</v>
+        <v>17.43022224477959</v>
       </c>
       <c r="L23">
-        <v>10.44754715623637</v>
+        <v>8.410580957732989</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.94425333293493</v>
+        <v>14.08056066174373</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.84906187134824</v>
+        <v>19.19538001452747</v>
       </c>
       <c r="C24">
-        <v>5.50997365204833</v>
+        <v>9.312010191112231</v>
       </c>
       <c r="D24">
-        <v>7.577707534656808</v>
+        <v>5.055268201494663</v>
       </c>
       <c r="E24">
-        <v>9.925382551370623</v>
+        <v>6.639693857347746</v>
       </c>
       <c r="F24">
-        <v>38.11121800503228</v>
+        <v>33.58986246577195</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>30.99993734246426</v>
+        <v>23.39330323353816</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.48556980605158</v>
+        <v>16.04870930557315</v>
       </c>
       <c r="L24">
-        <v>10.40792410605801</v>
+        <v>8.012863577061323</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.02098324997944</v>
+        <v>14.35231968583917</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.43723882974677</v>
+        <v>17.4095376049841</v>
       </c>
       <c r="C25">
-        <v>5.068898992790525</v>
+        <v>8.413328476891387</v>
       </c>
       <c r="D25">
-        <v>7.591747772672372</v>
+        <v>5.158870088608249</v>
       </c>
       <c r="E25">
-        <v>9.930201710056439</v>
+        <v>6.439409189982527</v>
       </c>
       <c r="F25">
-        <v>37.88976931403761</v>
+        <v>31.84590503304013</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>31.00004669632435</v>
+        <v>22.77991589629476</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.19021587105771</v>
+        <v>14.45192156864362</v>
       </c>
       <c r="L25">
-        <v>10.37231901989337</v>
+        <v>7.585317184766209</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.11089343246495</v>
+        <v>14.66415784655795</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.07128983966396</v>
+        <v>13.34562839360045</v>
       </c>
       <c r="C2">
-        <v>7.701859124482707</v>
+        <v>10.36096875496961</v>
       </c>
       <c r="D2">
-        <v>5.234378961725498</v>
+        <v>5.043157272741331</v>
       </c>
       <c r="E2">
-        <v>6.30055821214172</v>
+        <v>14.06745509347737</v>
       </c>
       <c r="F2">
-        <v>30.60187671934464</v>
+        <v>29.75390531883356</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>1.832160321218426</v>
+      </c>
+      <c r="I2">
+        <v>3.049759576453973</v>
+      </c>
+      <c r="J2">
         <v>4.251792669784106</v>
       </c>
-      <c r="I2">
-        <v>22.38113055601175</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
-        <v>13.1835308880387</v>
+        <v>20.80090484537903</v>
       </c>
       <c r="L2">
-        <v>7.273124113448522</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.66450775671892</v>
       </c>
       <c r="N2">
-        <v>14.90870819196133</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.34688272159667</v>
+      </c>
+      <c r="P2">
+        <v>14.85872521263857</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.1193011958791</v>
+        <v>12.44183256733354</v>
       </c>
       <c r="C3">
-        <v>7.187625231850475</v>
+        <v>9.634962143934462</v>
       </c>
       <c r="D3">
-        <v>5.28541393486701</v>
+        <v>5.016667070718849</v>
       </c>
       <c r="E3">
-        <v>6.211923104493041</v>
+        <v>13.15983576360721</v>
       </c>
       <c r="F3">
-        <v>29.78583490935494</v>
+        <v>28.75047772457125</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.079179816439814</v>
       </c>
       <c r="I3">
-        <v>22.141966546127</v>
+        <v>3.262742599081939</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>12.44039735976237</v>
+        <v>20.41715053319862</v>
       </c>
       <c r="L3">
-        <v>7.06405913647399</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.82637408342509</v>
       </c>
       <c r="N3">
-        <v>15.08333305128724</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.47342137376009</v>
+      </c>
+      <c r="P3">
+        <v>14.91141217854175</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.51357827200423</v>
+        <v>11.86574022358303</v>
       </c>
       <c r="C4">
-        <v>6.855781820584974</v>
+        <v>9.167884583975852</v>
       </c>
       <c r="D4">
-        <v>5.316783729013884</v>
+        <v>4.99900564190721</v>
       </c>
       <c r="E4">
-        <v>6.160224729615441</v>
+        <v>12.57190106819451</v>
       </c>
       <c r="F4">
-        <v>29.29892609610663</v>
+        <v>28.12303802570139</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.236050323666909</v>
       </c>
       <c r="I4">
-        <v>22.00981178275006</v>
+        <v>3.398602088649552</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>11.96967781969798</v>
+        <v>20.17918148722018</v>
       </c>
       <c r="L4">
-        <v>6.937274929805508</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.28138199088771</v>
       </c>
       <c r="N4">
-        <v>15.19482655760526</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.91062453904603</v>
+      </c>
+      <c r="P4">
+        <v>14.94406921900737</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.26161933380279</v>
+        <v>11.62793733901705</v>
       </c>
       <c r="C5">
-        <v>6.716468097152005</v>
+        <v>8.978876214244966</v>
       </c>
       <c r="D5">
-        <v>5.329589728038077</v>
+        <v>4.991456515269007</v>
       </c>
       <c r="E5">
-        <v>6.139846085827985</v>
+        <v>12.32517724502134</v>
       </c>
       <c r="F5">
-        <v>29.10419173333726</v>
+        <v>27.84996371454712</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.30159695755416</v>
       </c>
       <c r="I5">
-        <v>21.95955367346618</v>
+        <v>3.4581394200524</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>11.77441819585061</v>
+        <v>20.07041075655657</v>
       </c>
       <c r="L5">
-        <v>6.886063412973724</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.04937081015343</v>
       </c>
       <c r="N5">
-        <v>15.24132120014497</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.67364529260847</v>
+      </c>
+      <c r="P5">
+        <v>14.95377411762426</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.21947956087557</v>
+        <v>11.57949381395548</v>
       </c>
       <c r="C6">
-        <v>6.693087503680796</v>
+        <v>8.955384214779953</v>
       </c>
       <c r="D6">
-        <v>5.331717907965119</v>
+        <v>4.990187999033185</v>
       </c>
       <c r="E6">
-        <v>6.136503924498572</v>
+        <v>12.28446987167757</v>
       </c>
       <c r="F6">
-        <v>29.07208251223249</v>
+        <v>27.78631775994578</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.312914393001306</v>
       </c>
       <c r="I6">
-        <v>21.95142257010407</v>
+        <v>3.4717848214014</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>11.74179433539498</v>
+        <v>20.0385297892923</v>
       </c>
       <c r="L6">
-        <v>6.877588890349896</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.00763257993179</v>
       </c>
       <c r="N6">
-        <v>15.24910525455319</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.6325813646801</v>
+      </c>
+      <c r="P6">
+        <v>14.9509013044391</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.51020068867953</v>
+        <v>11.83986363777309</v>
       </c>
       <c r="C7">
-        <v>6.853919569906378</v>
+        <v>9.187209785552483</v>
       </c>
       <c r="D7">
-        <v>5.316956326062397</v>
+        <v>4.998953285832732</v>
       </c>
       <c r="E7">
-        <v>6.159947102586385</v>
+        <v>12.57054085507058</v>
       </c>
       <c r="F7">
-        <v>29.29628475180749</v>
+        <v>28.07034687204669</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.237879884017704</v>
       </c>
       <c r="I7">
-        <v>22.00911955777392</v>
+        <v>3.40918979730912</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>11.96705811305256</v>
+        <v>20.14028780000356</v>
       </c>
       <c r="L7">
-        <v>6.936582358894011</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.27094797197154</v>
       </c>
       <c r="N7">
-        <v>15.19544932539493</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.90391826026355</v>
+      </c>
+      <c r="P7">
+        <v>14.93198849983706</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.74755252897568</v>
+        <v>13.0140214589669</v>
       </c>
       <c r="C8">
-        <v>7.527869815015878</v>
+        <v>10.14149440499917</v>
       </c>
       <c r="D8">
-        <v>5.251977451528369</v>
+        <v>5.034532087182111</v>
       </c>
       <c r="E8">
-        <v>6.269434114398016</v>
+        <v>13.76319186306575</v>
       </c>
       <c r="F8">
-        <v>30.31764659003011</v>
+        <v>29.34825881330641</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>1.917478714185065</v>
       </c>
       <c r="I8">
-        <v>22.29555927469422</v>
+        <v>3.134843024345586</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>12.93039544479858</v>
+        <v>20.62075232731843</v>
       </c>
       <c r="L8">
-        <v>7.200742852176095</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.37280256001404</v>
       </c>
       <c r="N8">
-        <v>14.96802254366639</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.0468931430936</v>
+      </c>
+      <c r="P8">
+        <v>14.86088522639218</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.99923652550505</v>
+        <v>15.09977884037575</v>
       </c>
       <c r="C9">
-        <v>8.723635568392867</v>
+        <v>11.81130844785856</v>
       </c>
       <c r="D9">
-        <v>5.124140647922835</v>
+        <v>5.092837856043396</v>
       </c>
       <c r="E9">
-        <v>6.505548537419322</v>
+        <v>15.8571260092062</v>
       </c>
       <c r="F9">
-        <v>32.42737922878116</v>
+        <v>31.83522197715705</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>1.787849271261579</v>
       </c>
       <c r="I9">
-        <v>22.97808214452724</v>
+        <v>2.620155362525168</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>15.00440193284808</v>
+        <v>21.60633303627577</v>
       </c>
       <c r="L9">
-        <v>7.72903615641409</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.30613026474187</v>
       </c>
       <c r="N9">
-        <v>14.5567263976553</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.08050687966094</v>
+      </c>
+      <c r="P9">
+        <v>14.74560211004501</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.6530947667173</v>
+        <v>16.43848172469953</v>
       </c>
       <c r="C10">
-        <v>9.52849169134665</v>
+        <v>12.89021696669545</v>
       </c>
       <c r="D10">
-        <v>5.028926113644885</v>
+        <v>5.133391760061532</v>
       </c>
       <c r="E10">
-        <v>6.691799179318579</v>
+        <v>16.71484970081116</v>
       </c>
       <c r="F10">
-        <v>34.03625649230727</v>
+        <v>33.35440218476689</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.165762824454383</v>
       </c>
       <c r="I10">
-        <v>23.55884199014301</v>
+        <v>2.683465074697177</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>16.43187999718414</v>
+        <v>22.15947755549869</v>
       </c>
       <c r="L10">
-        <v>8.120749867441175</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.55051697078446</v>
       </c>
       <c r="N10">
-        <v>14.2770227472531</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.14990932428799</v>
+      </c>
+      <c r="P10">
+        <v>14.59966669444933</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.394018475693</v>
+        <v>16.83893274370545</v>
       </c>
       <c r="C11">
-        <v>9.879418016655034</v>
+        <v>12.90027005793069</v>
       </c>
       <c r="D11">
-        <v>4.985072422871687</v>
+        <v>5.217225183287296</v>
       </c>
       <c r="E11">
-        <v>6.779251478753473</v>
+        <v>12.5956283146787</v>
       </c>
       <c r="F11">
-        <v>34.78000773053401</v>
+        <v>32.14519190549725</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>2.947969566284675</v>
       </c>
       <c r="I11">
-        <v>23.84146630914582</v>
+        <v>2.774456590228463</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>17.05180526418618</v>
+        <v>21.17364535539167</v>
       </c>
       <c r="L11">
-        <v>8.299283648256081</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.8222926224434</v>
       </c>
       <c r="N11">
-        <v>14.15504097863074</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.12643297183611</v>
+      </c>
+      <c r="P11">
+        <v>14.0408695386265</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.66976994161764</v>
+        <v>16.93255032251533</v>
       </c>
       <c r="C12">
-        <v>10.01018926934235</v>
+        <v>12.66407260521946</v>
       </c>
       <c r="D12">
-        <v>4.968364715975757</v>
+        <v>5.311535069119298</v>
       </c>
       <c r="E12">
-        <v>6.812755832774016</v>
+        <v>9.160584129132092</v>
       </c>
       <c r="F12">
-        <v>35.06330621120085</v>
+        <v>30.85176809991913</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.1653982348349</v>
       </c>
       <c r="I12">
-        <v>23.95123941578656</v>
+        <v>2.782047092461224</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>17.28243385971649</v>
+        <v>20.2734934052958</v>
       </c>
       <c r="L12">
-        <v>8.366911240417894</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.80830614264738</v>
       </c>
       <c r="N12">
-        <v>14.10964582627731</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.19231279659517</v>
+      </c>
+      <c r="P12">
+        <v>13.64718731162004</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.61059452678938</v>
+        <v>16.77329552151133</v>
       </c>
       <c r="C13">
-        <v>9.982118305568005</v>
+        <v>12.23991384297689</v>
       </c>
       <c r="D13">
-        <v>4.971967924726008</v>
+        <v>5.415762549147805</v>
       </c>
       <c r="E13">
-        <v>6.805522856646581</v>
+        <v>6.331756252070149</v>
       </c>
       <c r="F13">
-        <v>35.00221961872504</v>
+        <v>29.31977482654233</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.470994096919305</v>
       </c>
       <c r="I13">
-        <v>23.92747390926963</v>
+        <v>2.730544772487927</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>17.23294542927114</v>
+        <v>19.32251376063899</v>
       </c>
       <c r="L13">
-        <v>8.352345871463005</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.56483572572527</v>
       </c>
       <c r="N13">
-        <v>14.11938632438107</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.15606149996596</v>
+      </c>
+      <c r="P13">
+        <v>13.34152241380961</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.4168006815913</v>
+        <v>16.54057566946698</v>
       </c>
       <c r="C14">
-        <v>9.890218648281483</v>
+        <v>11.85703026426657</v>
       </c>
       <c r="D14">
-        <v>4.983700042931606</v>
+        <v>5.495909074955119</v>
       </c>
       <c r="E14">
-        <v>6.782000141526408</v>
+        <v>5.271737709146721</v>
       </c>
       <c r="F14">
-        <v>34.80328185148591</v>
+        <v>28.11416647458507</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.460311152399496</v>
       </c>
       <c r="I14">
-        <v>23.85044172426895</v>
+        <v>2.669614213886878</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>17.07086120346044</v>
+        <v>18.62434307877788</v>
       </c>
       <c r="L14">
-        <v>8.304847129151053</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.28609446526717</v>
       </c>
       <c r="N14">
-        <v>14.15129006583994</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.66754417532993</v>
+      </c>
+      <c r="P14">
+        <v>13.1717922971075</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.29747190444436</v>
+        <v>16.42186433228565</v>
       </c>
       <c r="C15">
-        <v>9.833653956984934</v>
+        <v>11.72767600805227</v>
       </c>
       <c r="D15">
-        <v>4.99087237560202</v>
+        <v>5.51453210737881</v>
       </c>
       <c r="E15">
-        <v>6.767642247184634</v>
+        <v>5.204855923615517</v>
       </c>
       <c r="F15">
-        <v>34.68164144169968</v>
+        <v>27.75344151353992</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.70090197039595</v>
       </c>
       <c r="I15">
-        <v>23.80361834912215</v>
+        <v>2.642999874694135</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>16.97104631261637</v>
+        <v>18.43214053467606</v>
       </c>
       <c r="L15">
-        <v>8.27575477348115</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.16546499531175</v>
       </c>
       <c r="N15">
-        <v>14.17093711509713</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.27890993513887</v>
+      </c>
+      <c r="P15">
+        <v>13.14300432514831</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.60399321310037</v>
+        <v>15.88532350459105</v>
       </c>
       <c r="C16">
-        <v>9.50525764107984</v>
+        <v>11.342413153655</v>
       </c>
       <c r="D16">
-        <v>5.031779222663491</v>
+        <v>5.471335955858924</v>
       </c>
       <c r="E16">
-        <v>6.686138449767287</v>
+        <v>5.069807937318179</v>
       </c>
       <c r="F16">
-        <v>33.98788435890567</v>
+        <v>27.31594699733163</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.493930148043918</v>
       </c>
       <c r="I16">
-        <v>23.54075109571322</v>
+        <v>2.512667546370653</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>16.39078321250002</v>
+        <v>18.34717952060977</v>
       </c>
       <c r="L16">
-        <v>8.109086526178567</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.68362843378123</v>
       </c>
       <c r="N16">
-        <v>14.28510364823486</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.10188758980528</v>
+      </c>
+      <c r="P16">
+        <v>13.26346169064709</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.16986644493798</v>
+        <v>15.59351635479891</v>
       </c>
       <c r="C17">
-        <v>9.2999498324657</v>
+        <v>11.25737161200395</v>
       </c>
       <c r="D17">
-        <v>5.056719844075074</v>
+        <v>5.393819059430697</v>
       </c>
       <c r="E17">
-        <v>6.636833449109434</v>
+        <v>5.293061766439767</v>
       </c>
       <c r="F17">
-        <v>33.56528042598324</v>
+        <v>27.6407030839002</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.750334963948661</v>
       </c>
       <c r="I17">
-        <v>23.38428079976906</v>
+        <v>2.574326273729423</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>16.02734578475564</v>
+        <v>18.65595114883527</v>
       </c>
       <c r="L17">
-        <v>8.00690567734447</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.46144597336805</v>
       </c>
       <c r="N17">
-        <v>14.35651434024499</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.78650320080453</v>
+      </c>
+      <c r="P17">
+        <v>13.4417524004907</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.91693853278286</v>
+        <v>15.50348810446197</v>
       </c>
       <c r="C18">
-        <v>9.180426300391559</v>
+        <v>11.41444735144576</v>
       </c>
       <c r="D18">
-        <v>5.071015735525062</v>
+        <v>5.289054982829652</v>
       </c>
       <c r="E18">
-        <v>6.608731258093117</v>
+        <v>7.050216009712142</v>
       </c>
       <c r="F18">
-        <v>33.32332783357779</v>
+        <v>28.69122679337593</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.472625073984453</v>
       </c>
       <c r="I18">
-        <v>23.29601222469858</v>
+        <v>2.585229698081119</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>15.81552798288697</v>
+        <v>19.36948144831296</v>
       </c>
       <c r="L18">
-        <v>7.948167290885609</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.45100039675432</v>
       </c>
       <c r="N18">
-        <v>14.39807984174846</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.31524960725007</v>
+      </c>
+      <c r="P18">
+        <v>13.71574694248791</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.83074385992514</v>
+        <v>15.55223161380332</v>
       </c>
       <c r="C19">
-        <v>9.139709051712686</v>
+        <v>11.7859411278784</v>
       </c>
       <c r="D19">
-        <v>5.075848293842725</v>
+        <v>5.196320350467079</v>
       </c>
       <c r="E19">
-        <v>6.59926057782993</v>
+        <v>10.46685869239741</v>
       </c>
       <c r="F19">
-        <v>33.24160089248279</v>
+        <v>30.15632088524523</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>2.985233055048635</v>
       </c>
       <c r="I19">
-        <v>23.26642002072632</v>
+        <v>2.5625076486172</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>15.74332972638584</v>
+        <v>20.30201285490565</v>
       </c>
       <c r="L19">
-        <v>7.928286201690717</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.60299018877648</v>
       </c>
       <c r="N19">
-        <v>14.41223657235506</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.40203406859161</v>
+      </c>
+      <c r="P19">
+        <v>14.05854729024999</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.2164135344352</v>
+        <v>16.04330593093164</v>
       </c>
       <c r="C20">
-        <v>9.32195332671701</v>
+        <v>12.66135508258165</v>
       </c>
       <c r="D20">
-        <v>5.054070137647122</v>
+        <v>5.124908197550035</v>
       </c>
       <c r="E20">
-        <v>6.642055512055582</v>
+        <v>16.47386031344095</v>
       </c>
       <c r="F20">
-        <v>33.61015208840698</v>
+        <v>32.81947734663665</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.062949476881342</v>
       </c>
       <c r="I20">
-        <v>23.40075768423982</v>
+        <v>2.605627014706214</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>16.0663210804583</v>
+        <v>21.90270511732331</v>
       </c>
       <c r="L20">
-        <v>8.01777978389622</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.21374357869984</v>
       </c>
       <c r="N20">
-        <v>14.34886136129281</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.85364762813184</v>
+      </c>
+      <c r="P20">
+        <v>14.59911927393764</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.4738525636573</v>
+        <v>17.06023814450889</v>
       </c>
       <c r="C21">
-        <v>9.91726866749743</v>
+        <v>13.53381423408741</v>
       </c>
       <c r="D21">
-        <v>4.98025698363491</v>
+        <v>5.146979206405454</v>
       </c>
       <c r="E21">
-        <v>6.788898824549694</v>
+        <v>17.922635041411</v>
       </c>
       <c r="F21">
-        <v>34.86166999325878</v>
+        <v>34.31967784071905</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.383116868144201</v>
       </c>
       <c r="I21">
-        <v>23.87299251607092</v>
+        <v>2.871406009766484</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>17.11858026836283</v>
+        <v>22.55937912536459</v>
       </c>
       <c r="L21">
-        <v>8.318798284400353</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.17598732684529</v>
       </c>
       <c r="N21">
-        <v>14.14189718064051</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.08645593133674</v>
+      </c>
+      <c r="P21">
+        <v>14.58485298041798</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.26762291341608</v>
+        <v>17.70673411532035</v>
       </c>
       <c r="C22">
-        <v>10.29404004955523</v>
+        <v>14.03843781914429</v>
       </c>
       <c r="D22">
-        <v>4.931412847446887</v>
+        <v>5.161718808873906</v>
       </c>
       <c r="E22">
-        <v>6.887130789789878</v>
+        <v>18.56437214128519</v>
       </c>
       <c r="F22">
-        <v>35.6892622893745</v>
+        <v>35.22559155834499</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.577526153567764</v>
       </c>
       <c r="I22">
-        <v>24.19770071648654</v>
+        <v>3.03555337067285</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>17.78231358649787</v>
+        <v>22.95666404779079</v>
       </c>
       <c r="L22">
-        <v>8.515644800883114</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.77099011475729</v>
       </c>
       <c r="N22">
-        <v>14.01130220389631</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.72101853974296</v>
+      </c>
+      <c r="P22">
+        <v>14.56189449938397</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.84650071543106</v>
+        <v>17.38348555817933</v>
       </c>
       <c r="C23">
-        <v>10.09405077093867</v>
+        <v>13.75266925046479</v>
       </c>
       <c r="D23">
-        <v>4.957545486086561</v>
+        <v>5.153355651866918</v>
       </c>
       <c r="E23">
-        <v>6.834496483704841</v>
+        <v>18.22264835228813</v>
       </c>
       <c r="F23">
-        <v>35.24668552312105</v>
+        <v>34.7910246021107</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.475023330515076</v>
       </c>
       <c r="I23">
-        <v>24.02289296394378</v>
+        <v>2.944462438608674</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>17.43022224477959</v>
+        <v>22.78411545893352</v>
       </c>
       <c r="L23">
-        <v>8.410580957732989</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.46209273648367</v>
       </c>
       <c r="N23">
-        <v>14.08056066174373</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.38774963154546</v>
+      </c>
+      <c r="P23">
+        <v>14.58779431188265</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.19538001452747</v>
+        <v>16.07137577757646</v>
       </c>
       <c r="C24">
-        <v>9.312010191112231</v>
+        <v>12.66323980805762</v>
       </c>
       <c r="D24">
-        <v>5.055268201494663</v>
+        <v>5.120136548524852</v>
       </c>
       <c r="E24">
-        <v>6.639693857347746</v>
+        <v>16.8795160333649</v>
       </c>
       <c r="F24">
-        <v>33.58986246577195</v>
+        <v>33.03987775533187</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.078377780998744</v>
       </c>
       <c r="I24">
-        <v>23.39330323353816</v>
+        <v>2.600460934697611</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>16.04870930557315</v>
+        <v>22.0630721283843</v>
       </c>
       <c r="L24">
-        <v>8.012863577061323</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.23219697256605</v>
       </c>
       <c r="N24">
-        <v>14.35231968583917</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.07166742466404</v>
+      </c>
+      <c r="P24">
+        <v>14.66589005987171</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.4095376049841</v>
+        <v>14.53150834495405</v>
       </c>
       <c r="C25">
-        <v>8.413328476891387</v>
+        <v>11.40944193311824</v>
       </c>
       <c r="D25">
-        <v>5.158870088608249</v>
+        <v>5.078846788516064</v>
       </c>
       <c r="E25">
-        <v>6.439409189982527</v>
+        <v>15.31914968763134</v>
       </c>
       <c r="F25">
-        <v>31.84590503304013</v>
+        <v>31.09489168882708</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>1.634622755575237</v>
       </c>
       <c r="I25">
-        <v>22.77991589629476</v>
+        <v>2.774143575594799</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>14.45192156864362</v>
+        <v>21.2786654336232</v>
       </c>
       <c r="L25">
-        <v>7.585317184766209</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.79728002601736</v>
       </c>
       <c r="N25">
-        <v>14.66415784655795</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>16.54811003004952</v>
+      </c>
+      <c r="P25">
+        <v>14.75505439390766</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.34562839360045</v>
+        <v>12.66271482185655</v>
       </c>
       <c r="C2">
-        <v>10.36096875496961</v>
+        <v>11.07996029390248</v>
       </c>
       <c r="D2">
-        <v>5.043157272741331</v>
+        <v>4.951980032746768</v>
       </c>
       <c r="E2">
-        <v>14.06745509347737</v>
+        <v>14.27716801780865</v>
       </c>
       <c r="F2">
-        <v>29.75390531883356</v>
+        <v>27.65649685020426</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.832160321218426</v>
+        <v>1.765598596358638</v>
       </c>
       <c r="I2">
-        <v>3.049759576453973</v>
+        <v>2.887154352506764</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>20.80090484537903</v>
+        <v>19.00127148538474</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.54072283609123</v>
       </c>
       <c r="M2">
-        <v>12.66450775671892</v>
+        <v>12.72732849105599</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.34688272159667</v>
+        <v>12.47698909598735</v>
       </c>
       <c r="P2">
-        <v>14.85872521263857</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.25771832804627</v>
+      </c>
+      <c r="R2">
+        <v>14.21809856660195</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.44183256733354</v>
+        <v>11.8526217978342</v>
       </c>
       <c r="C3">
-        <v>9.634962143934462</v>
+        <v>10.2736784017684</v>
       </c>
       <c r="D3">
-        <v>5.016667070718849</v>
+        <v>4.906201254991087</v>
       </c>
       <c r="E3">
-        <v>13.15983576360721</v>
+        <v>13.37479628754275</v>
       </c>
       <c r="F3">
-        <v>28.75047772457125</v>
+        <v>26.84897958538624</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.079179816439814</v>
+        <v>2.000946955625985</v>
       </c>
       <c r="I3">
-        <v>3.262742599081939</v>
+        <v>3.073278507960379</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>20.41715053319862</v>
+        <v>18.77318298199577</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.5044763107478</v>
       </c>
       <c r="M3">
-        <v>11.82637408342509</v>
+        <v>12.41972248505324</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.47342137376009</v>
+        <v>11.6728650412916</v>
       </c>
       <c r="P3">
-        <v>14.91141217854175</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.40121352490038</v>
+      </c>
+      <c r="R3">
+        <v>14.32045940302279</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.86574022358303</v>
+        <v>11.32295613315468</v>
       </c>
       <c r="C4">
-        <v>9.167884583975852</v>
+        <v>9.754471163254502</v>
       </c>
       <c r="D4">
-        <v>4.99900564190721</v>
+        <v>4.876994402318971</v>
       </c>
       <c r="E4">
-        <v>12.57190106819451</v>
+        <v>12.79038327243765</v>
       </c>
       <c r="F4">
-        <v>28.12303802570139</v>
+        <v>26.34505764758086</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.236050323666909</v>
+        <v>2.150515897712825</v>
       </c>
       <c r="I4">
-        <v>3.398602088649552</v>
+        <v>3.192432300250004</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>20.17918148722018</v>
+        <v>18.63156414411006</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.4765978823888</v>
       </c>
       <c r="M4">
-        <v>11.28138199088771</v>
+        <v>12.24600655624892</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.91062453904603</v>
+        <v>11.14993538986323</v>
       </c>
       <c r="P4">
-        <v>14.94406921900737</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.84934580246827</v>
+      </c>
+      <c r="R4">
+        <v>14.38353349165716</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.62793733901705</v>
+        <v>11.09256846916493</v>
       </c>
       <c r="C5">
-        <v>8.978876214244966</v>
+        <v>9.543225622856243</v>
       </c>
       <c r="D5">
-        <v>4.991456515269007</v>
+        <v>4.865196208931901</v>
       </c>
       <c r="E5">
-        <v>12.32517724502134</v>
+        <v>12.54514294059627</v>
       </c>
       <c r="F5">
-        <v>27.84996371454712</v>
+        <v>26.12409384805272</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.30159695755416</v>
+        <v>2.213028043921001</v>
       </c>
       <c r="I5">
-        <v>3.4581394200524</v>
+        <v>3.245562434154464</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>20.07041075655657</v>
+        <v>18.56335303249278</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.45531321327117</v>
       </c>
       <c r="M5">
-        <v>11.04937081015343</v>
+        <v>12.17242816188664</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.67364529260847</v>
+        <v>10.9273723711305</v>
       </c>
       <c r="P5">
-        <v>14.95377411762426</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.61702302599758</v>
+      </c>
+      <c r="R5">
+        <v>14.40628458998121</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.57949381395548</v>
+        <v>11.04600989866043</v>
       </c>
       <c r="C6">
-        <v>8.955384214779953</v>
+        <v>9.515643648368519</v>
       </c>
       <c r="D6">
-        <v>4.990187999033185</v>
+        <v>4.863693592244096</v>
       </c>
       <c r="E6">
-        <v>12.28446987167757</v>
+        <v>12.50462994162491</v>
       </c>
       <c r="F6">
-        <v>27.78631775994578</v>
+        <v>26.07044858921073</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.312914393001306</v>
+        <v>2.223812156334432</v>
       </c>
       <c r="I6">
-        <v>3.4717848214014</v>
+        <v>3.258749216834054</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>20.0385297892923</v>
+        <v>18.53963667767044</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.44131816490211</v>
       </c>
       <c r="M6">
-        <v>11.00763257993179</v>
+        <v>12.15209947821354</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.6325813646801</v>
+        <v>10.88740494974853</v>
       </c>
       <c r="P6">
-        <v>14.9509013044391</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.5768233751103</v>
+      </c>
+      <c r="R6">
+        <v>14.40639058687397</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.83986363777309</v>
+        <v>11.29906433920017</v>
       </c>
       <c r="C7">
-        <v>9.187209785552483</v>
+        <v>9.772552084683687</v>
       </c>
       <c r="D7">
-        <v>4.998953285832732</v>
+        <v>4.878181745549454</v>
       </c>
       <c r="E7">
-        <v>12.57054085507058</v>
+        <v>12.78889302680486</v>
       </c>
       <c r="F7">
-        <v>28.07034687204669</v>
+        <v>26.29660275130831</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.237879884017704</v>
+        <v>2.15222994417688</v>
       </c>
       <c r="I7">
-        <v>3.40918979730912</v>
+        <v>3.204532810386326</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>20.14028780000356</v>
+        <v>18.59710463368681</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.44855209278497</v>
       </c>
       <c r="M7">
-        <v>11.27094797197154</v>
+        <v>12.2218609901163</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.90391826026355</v>
+        <v>11.14011535303101</v>
       </c>
       <c r="P7">
-        <v>14.93198849983706</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.84292427291766</v>
+      </c>
+      <c r="R7">
+        <v>14.37388295095208</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.0140214589669</v>
+        <v>12.36463790795113</v>
       </c>
       <c r="C8">
-        <v>10.14149440499917</v>
+        <v>10.83224380733032</v>
       </c>
       <c r="D8">
-        <v>5.034532087182111</v>
+        <v>4.938441252377735</v>
       </c>
       <c r="E8">
-        <v>13.76319186306575</v>
+        <v>13.9745066255192</v>
       </c>
       <c r="F8">
-        <v>29.34825881330641</v>
+        <v>27.3221498426122</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.917478714185065</v>
+        <v>1.846817253011231</v>
       </c>
       <c r="I8">
-        <v>3.134843024345586</v>
+        <v>2.965091381232277</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>20.62075232731843</v>
+        <v>18.87968229465085</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.49500936656016</v>
       </c>
       <c r="M8">
-        <v>12.37280256001404</v>
+        <v>12.5867111315677</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.0468931430936</v>
+        <v>12.19736928010964</v>
       </c>
       <c r="P8">
-        <v>14.86088522639218</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.9637507484003</v>
+      </c>
+      <c r="R8">
+        <v>14.24052481387996</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.09977884037575</v>
+        <v>14.233359657752</v>
       </c>
       <c r="C9">
-        <v>11.81130844785856</v>
+        <v>12.68738723061932</v>
       </c>
       <c r="D9">
-        <v>5.092837856043396</v>
+        <v>5.045071671043528</v>
       </c>
       <c r="E9">
-        <v>15.8571260092062</v>
+        <v>16.05641502876997</v>
       </c>
       <c r="F9">
-        <v>31.83522197715705</v>
+        <v>29.33779509578704</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.787849271261579</v>
+        <v>1.828901166564301</v>
       </c>
       <c r="I9">
-        <v>2.620155362525168</v>
+        <v>2.514776447828399</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>21.60633303627577</v>
+        <v>19.4789425221733</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.58746765755369</v>
       </c>
       <c r="M9">
-        <v>14.30613026474187</v>
+        <v>13.4549324187191</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.08050687966094</v>
+        <v>14.05137253572598</v>
       </c>
       <c r="P9">
-        <v>14.74560211004501</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.95743817494086</v>
+      </c>
+      <c r="R9">
+        <v>13.9978225678994</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.43848172469953</v>
+        <v>15.43899241412977</v>
       </c>
       <c r="C10">
-        <v>12.89021696669545</v>
+        <v>13.87757211555599</v>
       </c>
       <c r="D10">
-        <v>5.133391760061532</v>
+        <v>5.130258893727332</v>
       </c>
       <c r="E10">
-        <v>16.71484970081116</v>
+        <v>16.90497021954005</v>
       </c>
       <c r="F10">
-        <v>33.35440218476689</v>
+        <v>30.56141375973485</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.165762824454383</v>
+        <v>2.187248825990802</v>
       </c>
       <c r="I10">
-        <v>2.683465074697177</v>
+        <v>2.751414618486758</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>22.15947755549869</v>
+        <v>19.78426352381308</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.53678183031925</v>
       </c>
       <c r="M10">
-        <v>15.55051697078446</v>
+        <v>14.04473106432542</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.14990932428799</v>
+        <v>15.24607702624462</v>
       </c>
       <c r="P10">
-        <v>14.59966669444933</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.00141136737349</v>
+      </c>
+      <c r="R10">
+        <v>13.77433525614131</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.83893274370545</v>
+        <v>15.87118347340732</v>
       </c>
       <c r="C11">
-        <v>12.90027005793069</v>
+        <v>13.84694307569223</v>
       </c>
       <c r="D11">
-        <v>5.217225183287296</v>
+        <v>5.290631730235368</v>
       </c>
       <c r="E11">
-        <v>12.5956283146787</v>
+        <v>12.77687873463517</v>
       </c>
       <c r="F11">
-        <v>32.14519190549725</v>
+        <v>29.45789291577518</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.947969566284675</v>
+        <v>2.960828507016821</v>
       </c>
       <c r="I11">
-        <v>2.774456590228463</v>
+        <v>2.835857593134961</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>21.17364535539167</v>
+        <v>18.91622366781512</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.78599962312012</v>
       </c>
       <c r="M11">
-        <v>15.8222926224434</v>
+        <v>13.51939727029799</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.12643297183611</v>
+        <v>15.52693168216855</v>
       </c>
       <c r="P11">
-        <v>14.0408695386265</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.98240860994295</v>
+      </c>
+      <c r="R11">
+        <v>13.32346355139449</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.93255032251533</v>
+        <v>16.01731570129613</v>
       </c>
       <c r="C12">
-        <v>12.66407260521946</v>
+        <v>13.55406880335117</v>
       </c>
       <c r="D12">
-        <v>5.311535069119298</v>
+        <v>5.429722695335307</v>
       </c>
       <c r="E12">
-        <v>9.160584129132092</v>
+        <v>9.333408113659839</v>
       </c>
       <c r="F12">
-        <v>30.85176809991913</v>
+        <v>28.31178309323129</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.1653982348349</v>
+        <v>4.174471704588062</v>
       </c>
       <c r="I12">
-        <v>2.782047092461224</v>
+        <v>2.843923841618715</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>20.2734934052958</v>
+        <v>18.16437627699399</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.20848025186942</v>
       </c>
       <c r="M12">
-        <v>15.80830614264738</v>
+        <v>12.97535066975459</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.19231279659517</v>
+        <v>15.53023268079817</v>
       </c>
       <c r="P12">
-        <v>13.64718731162004</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.057315207162</v>
+      </c>
+      <c r="R12">
+        <v>13.03270354145058</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.77329552151133</v>
+        <v>15.93326135863731</v>
       </c>
       <c r="C13">
-        <v>12.23991384297689</v>
+        <v>13.05408085317354</v>
       </c>
       <c r="D13">
-        <v>5.415762549147805</v>
+        <v>5.559120739040877</v>
       </c>
       <c r="E13">
-        <v>6.331756252070149</v>
+        <v>6.488515142840769</v>
       </c>
       <c r="F13">
-        <v>29.31977482654233</v>
+        <v>26.97667317757065</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.470994096919305</v>
+        <v>5.478898820859074</v>
       </c>
       <c r="I13">
-        <v>2.730544772487927</v>
+        <v>2.800037051145183</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>19.32251376063899</v>
+        <v>17.40236293356334</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.68258962857636</v>
       </c>
       <c r="M13">
-        <v>15.56483572572527</v>
+        <v>12.34275152760974</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.15606149996596</v>
+        <v>15.31255489208303</v>
       </c>
       <c r="P13">
-        <v>13.34152241380961</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.03482237684841</v>
+      </c>
+      <c r="R13">
+        <v>12.83328346009276</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.54057566946698</v>
+        <v>15.76481430139115</v>
       </c>
       <c r="C14">
-        <v>11.85703026426657</v>
+        <v>12.60785228241758</v>
       </c>
       <c r="D14">
-        <v>5.495909074955119</v>
+        <v>5.647414716878023</v>
       </c>
       <c r="E14">
-        <v>5.271737709146721</v>
+        <v>5.393401769767501</v>
       </c>
       <c r="F14">
-        <v>28.11416647458507</v>
+        <v>25.93427592671194</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.460311152399496</v>
+        <v>6.454512838424899</v>
       </c>
       <c r="I14">
-        <v>2.669614213886878</v>
+        <v>2.747902165266892</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>18.62434307877788</v>
+        <v>16.85674556717049</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.32911395636704</v>
       </c>
       <c r="M14">
-        <v>15.28609446526717</v>
+        <v>11.85504821566131</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.66754417532993</v>
+        <v>15.0561264271503</v>
       </c>
       <c r="P14">
-        <v>13.1717922971075</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.55859059206307</v>
+      </c>
+      <c r="R14">
+        <v>12.73768143974454</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.42186433228565</v>
+        <v>15.66734182133415</v>
       </c>
       <c r="C15">
-        <v>11.72767600805227</v>
+        <v>12.45837927707991</v>
       </c>
       <c r="D15">
-        <v>5.51453210737881</v>
+        <v>5.665219266671444</v>
       </c>
       <c r="E15">
-        <v>5.204855923615517</v>
+        <v>5.314921714990834</v>
       </c>
       <c r="F15">
-        <v>27.75344151353992</v>
+        <v>25.62537129243002</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.70090197039595</v>
+        <v>6.694787223377996</v>
       </c>
       <c r="I15">
-        <v>2.642999874694135</v>
+        <v>2.725563378931658</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>18.43214053467606</v>
+        <v>16.71153995555504</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.2435155025571</v>
       </c>
       <c r="M15">
-        <v>15.16546499531175</v>
+        <v>11.71152651498388</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.27890993513887</v>
+        <v>14.94299810200939</v>
       </c>
       <c r="P15">
-        <v>13.14300432514831</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.17409854705653</v>
+      </c>
+      <c r="R15">
+        <v>12.72809787535909</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.88532350459105</v>
+        <v>15.17728370863796</v>
       </c>
       <c r="C16">
-        <v>11.342413153655</v>
+        <v>12.03446930788305</v>
       </c>
       <c r="D16">
-        <v>5.471335955858924</v>
+        <v>5.597717614103845</v>
       </c>
       <c r="E16">
-        <v>5.069807937318179</v>
+        <v>5.205733685649736</v>
       </c>
       <c r="F16">
-        <v>27.31594699733163</v>
+        <v>25.28537214920073</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.493930148043918</v>
+        <v>6.485202093694251</v>
       </c>
       <c r="I16">
-        <v>2.512667546370653</v>
+        <v>2.611817013293276</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>18.34717952060977</v>
+        <v>16.70158889414206</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.32159881345638</v>
       </c>
       <c r="M16">
-        <v>14.68362843378123</v>
+        <v>11.5700135025829</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.10188758980528</v>
+        <v>14.47875797911436</v>
       </c>
       <c r="P16">
-        <v>13.26346169064709</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.00593376632519</v>
+      </c>
+      <c r="R16">
+        <v>12.85486770806922</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.59351635479891</v>
+        <v>14.88582429996575</v>
       </c>
       <c r="C17">
-        <v>11.25737161200395</v>
+        <v>11.95516578608096</v>
       </c>
       <c r="D17">
-        <v>5.393819059430697</v>
+        <v>5.497840984340466</v>
       </c>
       <c r="E17">
-        <v>5.293061766439767</v>
+        <v>5.473275417172252</v>
       </c>
       <c r="F17">
-        <v>27.6407030839002</v>
+        <v>25.59553563049213</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.750334963948661</v>
+        <v>5.739104006310498</v>
       </c>
       <c r="I17">
-        <v>2.574326273729423</v>
+        <v>2.552073795386145</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>18.65595114883527</v>
+        <v>16.98557983764513</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.57618267323891</v>
       </c>
       <c r="M17">
-        <v>14.46144597336805</v>
+        <v>11.72102287712724</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.78650320080453</v>
+        <v>14.25784394765838</v>
       </c>
       <c r="P17">
-        <v>13.4417524004907</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.69037142971808</v>
+      </c>
+      <c r="R17">
+        <v>13.00101610221967</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.50348810446197</v>
+        <v>14.7545850727767</v>
       </c>
       <c r="C18">
-        <v>11.41444735144576</v>
+        <v>12.15813582938364</v>
       </c>
       <c r="D18">
-        <v>5.289054982829652</v>
+        <v>5.36543150503055</v>
       </c>
       <c r="E18">
-        <v>7.050216009712142</v>
+        <v>7.25163104762755</v>
       </c>
       <c r="F18">
-        <v>28.69122679337593</v>
+        <v>26.53002173061524</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.472625073984453</v>
+        <v>4.458332242715329</v>
       </c>
       <c r="I18">
-        <v>2.585229698081119</v>
+        <v>2.529006483560783</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>19.36948144831296</v>
+        <v>17.58280927760926</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.03998361869434</v>
       </c>
       <c r="M18">
-        <v>14.45100039675432</v>
+        <v>12.15312547715068</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.31524960725007</v>
+        <v>14.2341033361216</v>
       </c>
       <c r="P18">
-        <v>13.71574694248791</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.21142691312516</v>
+      </c>
+      <c r="R18">
+        <v>13.20214747979657</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.55223161380332</v>
+        <v>14.73451264843263</v>
       </c>
       <c r="C19">
-        <v>11.7859411278784</v>
+        <v>12.60187669866223</v>
       </c>
       <c r="D19">
-        <v>5.196320350467079</v>
+        <v>5.238807061633627</v>
       </c>
       <c r="E19">
-        <v>10.46685869239741</v>
+        <v>10.66454098613314</v>
       </c>
       <c r="F19">
-        <v>30.15632088524523</v>
+        <v>27.81289650805901</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.985233055048635</v>
+        <v>3.006412389307217</v>
       </c>
       <c r="I19">
-        <v>2.5625076486172</v>
+        <v>2.553682610638189</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>20.30201285490565</v>
+        <v>18.34126413988225</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.60679812675777</v>
       </c>
       <c r="M19">
-        <v>14.60299018877648</v>
+        <v>12.7375201752306</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.40203406859161</v>
+        <v>14.36285966236708</v>
       </c>
       <c r="P19">
-        <v>14.05854729024999</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.28602528422225</v>
+      </c>
+      <c r="R19">
+        <v>13.44481939264988</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.04330593093164</v>
+        <v>15.08205585237313</v>
       </c>
       <c r="C20">
-        <v>12.66135508258165</v>
+        <v>13.61758255307097</v>
       </c>
       <c r="D20">
-        <v>5.124908197550035</v>
+        <v>5.114705390304964</v>
       </c>
       <c r="E20">
-        <v>16.47386031344095</v>
+        <v>16.66632817647787</v>
       </c>
       <c r="F20">
-        <v>32.81947734663665</v>
+        <v>30.11303747012252</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.062949476881342</v>
+        <v>2.089820804260814</v>
       </c>
       <c r="I20">
-        <v>2.605627014706214</v>
+        <v>2.688085436183981</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>21.90270511732331</v>
+        <v>19.60413586035371</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.47760261626893</v>
       </c>
       <c r="M20">
-        <v>15.21374357869984</v>
+        <v>13.80845442048362</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.85364762813184</v>
+        <v>14.92344112093706</v>
       </c>
       <c r="P20">
-        <v>14.59911927393764</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.71238673299664</v>
+      </c>
+      <c r="R20">
+        <v>13.80276838440354</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.06023814450889</v>
+        <v>15.98455236243374</v>
       </c>
       <c r="C21">
-        <v>13.53381423408741</v>
+        <v>14.58741995472328</v>
       </c>
       <c r="D21">
-        <v>5.146979206405454</v>
+        <v>5.160081586131855</v>
       </c>
       <c r="E21">
-        <v>17.922635041411</v>
+        <v>18.1083557659592</v>
       </c>
       <c r="F21">
-        <v>34.31967784071905</v>
+        <v>31.35017629063329</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.383116868144201</v>
+        <v>2.394152997329968</v>
       </c>
       <c r="I21">
-        <v>2.871406009766484</v>
+        <v>2.919998319081503</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>22.55937912536459</v>
+        <v>20.03124111235022</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.5761910527303</v>
       </c>
       <c r="M21">
-        <v>16.17598732684529</v>
+        <v>14.42555375174639</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.08645593133674</v>
+        <v>15.84310880751732</v>
       </c>
       <c r="P21">
-        <v>14.58485298041798</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.92332097002477</v>
+      </c>
+      <c r="R21">
+        <v>13.70210676083104</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.70673411532035</v>
+        <v>16.56273151636307</v>
       </c>
       <c r="C22">
-        <v>14.03843781914429</v>
+        <v>15.14858248868357</v>
       </c>
       <c r="D22">
-        <v>5.161718808873906</v>
+        <v>5.191895476027172</v>
       </c>
       <c r="E22">
-        <v>18.56437214128519</v>
+        <v>18.74540182361883</v>
       </c>
       <c r="F22">
-        <v>35.22559155834499</v>
+        <v>32.09939913951329</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.577526153567764</v>
+        <v>2.578363086831513</v>
       </c>
       <c r="I22">
-        <v>3.03555337067285</v>
+        <v>3.061314194217446</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>22.95666404779079</v>
+        <v>20.28984049713569</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.62109898039276</v>
       </c>
       <c r="M22">
-        <v>16.77099011475729</v>
+        <v>14.81990306785858</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.72101853974296</v>
+        <v>16.412377223881</v>
       </c>
       <c r="P22">
-        <v>14.56189449938397</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.54452815506546</v>
+      </c>
+      <c r="R22">
+        <v>13.62702062016444</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.38348555817933</v>
+        <v>16.27438362352502</v>
       </c>
       <c r="C23">
-        <v>13.75266925046479</v>
+        <v>14.83370038795439</v>
       </c>
       <c r="D23">
-        <v>5.153355651866918</v>
+        <v>5.172650496802468</v>
       </c>
       <c r="E23">
-        <v>18.22264835228813</v>
+        <v>18.40625428935719</v>
       </c>
       <c r="F23">
-        <v>34.7910246021107</v>
+        <v>31.74471041510099</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.475023330515076</v>
+        <v>2.48120716815615</v>
       </c>
       <c r="I23">
-        <v>2.944462438608674</v>
+        <v>2.980936832161343</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>22.78411545893352</v>
+        <v>20.18712015100233</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.62273710214896</v>
       </c>
       <c r="M23">
-        <v>16.46209273648367</v>
+        <v>14.63697807329939</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.38774963154546</v>
+        <v>16.11671723254051</v>
       </c>
       <c r="P23">
-        <v>14.58779431188265</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.2181461031308</v>
+      </c>
+      <c r="R23">
+        <v>13.67774566459462</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.07137577757646</v>
+        <v>15.10162481814699</v>
       </c>
       <c r="C24">
-        <v>12.66323980805762</v>
+        <v>13.62742192482889</v>
       </c>
       <c r="D24">
-        <v>5.120136548524852</v>
+        <v>5.101556266881957</v>
       </c>
       <c r="E24">
-        <v>16.8795160333649</v>
+        <v>17.07236267074063</v>
       </c>
       <c r="F24">
-        <v>33.03987775533187</v>
+        <v>30.31089000786877</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.078377780998744</v>
+        <v>2.104948271179214</v>
       </c>
       <c r="I24">
-        <v>2.600460934697611</v>
+        <v>2.680202652595462</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>22.0630721283843</v>
+        <v>19.74124390164626</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.58197707244638</v>
       </c>
       <c r="M24">
-        <v>15.23219697256605</v>
+        <v>13.91160545959952</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.07166742466404</v>
+        <v>14.93905867257404</v>
       </c>
       <c r="P24">
-        <v>14.66589005987171</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.92900630869694</v>
+      </c>
+      <c r="R24">
+        <v>13.85371108551155</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.53150834495405</v>
+        <v>13.72336957805751</v>
       </c>
       <c r="C25">
-        <v>11.40944193311824</v>
+        <v>12.23644026843466</v>
       </c>
       <c r="D25">
-        <v>5.078846788516064</v>
+        <v>5.02031082148985</v>
       </c>
       <c r="E25">
-        <v>15.31914968763134</v>
+        <v>15.52147383203287</v>
       </c>
       <c r="F25">
-        <v>31.09489168882708</v>
+        <v>28.72700447913856</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.634622755575237</v>
+        <v>1.683287079332882</v>
       </c>
       <c r="I25">
-        <v>2.774143575594799</v>
+        <v>2.654699771441336</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>21.2786654336232</v>
+        <v>19.26121306738164</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.52385105402043</v>
       </c>
       <c r="M25">
-        <v>13.79728002601736</v>
+        <v>13.16615626351151</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.54811003004952</v>
+        <v>13.56383261057958</v>
       </c>
       <c r="P25">
-        <v>14.75505439390766</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>16.43582088264423</v>
+      </c>
+      <c r="R25">
+        <v>14.04637196158246</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
